--- a/Stocks/TSLA/TSLA_HighLow.xlsx
+++ b/Stocks/TSLA/TSLA_HighLow.xlsx
@@ -417,2562 +417,2562 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>613</v>
+        <v>677.77001953125</v>
       </c>
       <c r="B2">
-        <v>645.5</v>
+        <v>680.969970703125</v>
       </c>
       <c r="C2">
-        <v>609.5</v>
+        <v>669.4299926757812</v>
       </c>
       <c r="D2">
-        <v>640.3900146484375</v>
+        <v>677.02001953125</v>
       </c>
       <c r="E2">
-        <v>640.3900146484375</v>
+        <v>677.02001953125</v>
       </c>
       <c r="F2">
-        <v>39224900</v>
+        <v>21437100</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>641.8699951171875</v>
+        <v>685.7000122070312</v>
       </c>
       <c r="B3">
-        <v>643.8200073242188</v>
+        <v>704.7999877929688</v>
       </c>
       <c r="C3">
-        <v>599.8900146484375</v>
+        <v>682.0900268554688</v>
       </c>
       <c r="D3">
-        <v>618.7100219726562</v>
+        <v>701.97998046875</v>
       </c>
       <c r="E3">
-        <v>618.7100219726562</v>
+        <v>701.97998046875</v>
       </c>
       <c r="F3">
-        <v>33852800</v>
+        <v>29135700</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>615.6400146484375</v>
+        <v>712.7000122070312</v>
       </c>
       <c r="B4">
-        <v>616.47998046875</v>
+        <v>763</v>
       </c>
       <c r="C4">
-        <v>596.02001953125</v>
+        <v>710.6599731445312</v>
       </c>
       <c r="D4">
-        <v>611.2899780273438</v>
+        <v>762.3200073242188</v>
       </c>
       <c r="E4">
-        <v>611.2899780273438</v>
+        <v>762.3200073242188</v>
       </c>
       <c r="F4">
-        <v>28637000</v>
+        <v>44652800</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>601.75</v>
+        <v>770.7000122070312</v>
       </c>
       <c r="B5">
-        <v>637.6599731445312</v>
+        <v>780.7899780273438</v>
       </c>
       <c r="C5">
-        <v>591.010009765625</v>
+        <v>728.030029296875</v>
       </c>
       <c r="D5">
-        <v>635.6199951171875</v>
+        <v>732.22998046875</v>
       </c>
       <c r="E5">
-        <v>635.6199951171875</v>
+        <v>732.22998046875</v>
       </c>
       <c r="F5">
-        <v>39432400</v>
+        <v>49017400</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>646.6199951171875</v>
+        <v>743.0999755859375</v>
       </c>
       <c r="B6">
-        <v>672</v>
+        <v>743.6900024414062</v>
       </c>
       <c r="C6">
-        <v>641.1099853515625</v>
+        <v>721.3099975585938</v>
       </c>
       <c r="D6">
-        <v>667.9299926757812</v>
+        <v>738.8499755859375</v>
       </c>
       <c r="E6">
-        <v>667.9299926757812</v>
+        <v>738.8499755859375</v>
       </c>
       <c r="F6">
-        <v>33337300</v>
+        <v>27848900</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>688.3699951171875</v>
+        <v>728.6500244140625</v>
       </c>
       <c r="B7">
-        <v>692.4199829101562</v>
+        <v>749.4099731445312</v>
       </c>
       <c r="C7">
-        <v>659.4199829101562</v>
+        <v>724.5999755859375</v>
       </c>
       <c r="D7">
-        <v>661.75</v>
+        <v>739.780029296875</v>
       </c>
       <c r="E7">
-        <v>661.75</v>
+        <v>739.780029296875</v>
       </c>
       <c r="F7">
-        <v>35298400</v>
+        <v>27979500</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>707.7100219726562</v>
+        <v>719.5999755859375</v>
       </c>
       <c r="B8">
-        <v>708.1599731445312</v>
+        <v>725.4000244140625</v>
       </c>
       <c r="C8">
-        <v>684.7000122070312</v>
+        <v>691.7999877929688</v>
       </c>
       <c r="D8">
-        <v>691.0499877929688</v>
+        <v>714.6300048828125</v>
       </c>
       <c r="E8">
-        <v>691.0499877929688</v>
+        <v>714.6300048828125</v>
       </c>
       <c r="F8">
-        <v>41842800</v>
+        <v>39686200</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>690.2999877929688</v>
+        <v>717.4199829101562</v>
       </c>
       <c r="B9">
-        <v>696.5499877929688</v>
+        <v>737.25</v>
       </c>
       <c r="C9">
-        <v>681.3699951171875</v>
+        <v>710.6900024414062</v>
       </c>
       <c r="D9">
-        <v>691.6199951171875</v>
+        <v>718.989990234375</v>
       </c>
       <c r="E9">
-        <v>691.6199951171875</v>
+        <v>718.989990234375</v>
       </c>
       <c r="F9">
-        <v>28271800</v>
+        <v>35609000</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>687</v>
+        <v>704.77001953125</v>
       </c>
       <c r="B10">
-        <v>691.3800048828125</v>
+        <v>744.8400268554688</v>
       </c>
       <c r="C10">
-        <v>667.8400268554688</v>
+        <v>698</v>
       </c>
       <c r="D10">
-        <v>670.969970703125</v>
+        <v>744.1199951171875</v>
       </c>
       <c r="E10">
-        <v>670.969970703125</v>
+        <v>744.1199951171875</v>
       </c>
       <c r="F10">
-        <v>26309400</v>
+        <v>31215500</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>677.3800048828125</v>
+        <v>741.5</v>
       </c>
       <c r="B11">
-        <v>689.5499877929688</v>
+        <v>753.77001953125</v>
       </c>
       <c r="C11">
-        <v>671.6500244140625</v>
+        <v>718.0399780273438</v>
       </c>
       <c r="D11">
-        <v>683.7999877929688</v>
+        <v>719.6900024414062</v>
       </c>
       <c r="E11">
-        <v>683.7999877929688</v>
+        <v>719.6900024414062</v>
       </c>
       <c r="F11">
-        <v>23924300</v>
+        <v>35590300</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>677.77001953125</v>
+        <v>719.7999877929688</v>
       </c>
       <c r="B12">
-        <v>680.969970703125</v>
+        <v>737.3599853515625</v>
       </c>
       <c r="C12">
-        <v>669.4299926757812</v>
+        <v>715.4600219726562</v>
       </c>
       <c r="D12">
-        <v>677.02001953125</v>
+        <v>729.4000244140625</v>
       </c>
       <c r="E12">
-        <v>677.02001953125</v>
+        <v>729.4000244140625</v>
       </c>
       <c r="F12">
-        <v>21437100</v>
+        <v>28370000</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>685.7000122070312</v>
+        <v>741</v>
       </c>
       <c r="B13">
-        <v>704.7999877929688</v>
+        <v>749.2999877929688</v>
       </c>
       <c r="C13">
-        <v>682.0900268554688</v>
+        <v>732.6099853515625</v>
       </c>
       <c r="D13">
-        <v>701.97998046875</v>
+        <v>738.2000122070312</v>
       </c>
       <c r="E13">
-        <v>701.97998046875</v>
+        <v>738.2000122070312</v>
       </c>
       <c r="F13">
-        <v>29135700</v>
+        <v>31038500</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>712.7000122070312</v>
+        <v>717.9600219726562</v>
       </c>
       <c r="B14">
-        <v>763</v>
+        <v>724</v>
       </c>
       <c r="C14">
-        <v>710.6599731445312</v>
+        <v>703.3499755859375</v>
       </c>
       <c r="D14">
-        <v>762.3200073242188</v>
+        <v>704.739990234375</v>
       </c>
       <c r="E14">
-        <v>762.3200073242188</v>
+        <v>704.739990234375</v>
       </c>
       <c r="F14">
-        <v>44652800</v>
+        <v>29437000</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>770.7000122070312</v>
+        <v>696.4099731445312</v>
       </c>
       <c r="B15">
-        <v>780.7899780273438</v>
+        <v>708.5</v>
       </c>
       <c r="C15">
-        <v>728.030029296875</v>
+        <v>693.5999755859375</v>
       </c>
       <c r="D15">
-        <v>732.22998046875</v>
+        <v>694.4000244140625</v>
       </c>
       <c r="E15">
-        <v>732.22998046875</v>
+        <v>694.4000244140625</v>
       </c>
       <c r="F15">
-        <v>49017400</v>
+        <v>22271000</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>743.0999755859375</v>
+        <v>699.510009765625</v>
       </c>
       <c r="B16">
-        <v>743.6900024414062</v>
+        <v>702.25</v>
       </c>
       <c r="C16">
-        <v>721.3099975585938</v>
+        <v>668.5</v>
       </c>
       <c r="D16">
-        <v>738.8499755859375</v>
+        <v>677</v>
       </c>
       <c r="E16">
-        <v>738.8499755859375</v>
+        <v>677</v>
       </c>
       <c r="F16">
-        <v>27848900</v>
+        <v>28845400</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>728.6500244140625</v>
+        <v>667.5900268554688</v>
       </c>
       <c r="B17">
-        <v>749.4099731445312</v>
+        <v>715.469970703125</v>
       </c>
       <c r="C17">
-        <v>724.5999755859375</v>
+        <v>666.1400146484375</v>
       </c>
       <c r="D17">
-        <v>739.780029296875</v>
+        <v>709.4400024414062</v>
       </c>
       <c r="E17">
-        <v>739.780029296875</v>
+        <v>709.4400024414062</v>
       </c>
       <c r="F17">
-        <v>27979500</v>
+        <v>40758700</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>719.5999755859375</v>
+        <v>703.7999877929688</v>
       </c>
       <c r="B18">
-        <v>725.4000244140625</v>
+        <v>706</v>
       </c>
       <c r="C18">
-        <v>691.7999877929688</v>
+        <v>680.5</v>
       </c>
       <c r="D18">
-        <v>714.6300048828125</v>
+        <v>684.9000244140625</v>
       </c>
       <c r="E18">
-        <v>714.6300048828125</v>
+        <v>684.9000244140625</v>
       </c>
       <c r="F18">
-        <v>39686200</v>
+        <v>27043100</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>717.4199829101562</v>
+        <v>678.9400024414062</v>
       </c>
       <c r="B19">
-        <v>737.25</v>
+        <v>683.4500122070312</v>
       </c>
       <c r="C19">
-        <v>710.6900024414062</v>
+        <v>657.7000122070312</v>
       </c>
       <c r="D19">
-        <v>718.989990234375</v>
+        <v>673.5999755859375</v>
       </c>
       <c r="E19">
-        <v>718.989990234375</v>
+        <v>673.5999755859375</v>
       </c>
       <c r="F19">
-        <v>35609000</v>
+        <v>29739300</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>704.77001953125</v>
+        <v>681.0599975585938</v>
       </c>
       <c r="B20">
-        <v>744.8400268554688</v>
+        <v>685.2999877929688</v>
       </c>
       <c r="C20">
-        <v>698</v>
+        <v>667.3400268554688</v>
       </c>
       <c r="D20">
-        <v>744.1199951171875</v>
+        <v>670.9400024414062</v>
       </c>
       <c r="E20">
-        <v>744.1199951171875</v>
+        <v>670.9400024414062</v>
       </c>
       <c r="F20">
-        <v>31215500</v>
+        <v>21901900</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>741.5</v>
+        <v>680.760009765625</v>
       </c>
       <c r="B21">
-        <v>753.77001953125</v>
+        <v>681.02001953125</v>
       </c>
       <c r="C21">
-        <v>718.0399780273438</v>
+        <v>650</v>
       </c>
       <c r="D21">
-        <v>719.6900024414062</v>
+        <v>663.5399780273438</v>
       </c>
       <c r="E21">
-        <v>719.6900024414062</v>
+        <v>663.5399780273438</v>
       </c>
       <c r="F21">
-        <v>35590300</v>
+        <v>27784600</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>719.7999877929688</v>
+        <v>665.7999877929688</v>
       </c>
       <c r="B22">
-        <v>737.3599853515625</v>
+        <v>690</v>
       </c>
       <c r="C22">
-        <v>715.4600219726562</v>
+        <v>660.219970703125</v>
       </c>
       <c r="D22">
-        <v>729.4000244140625</v>
+        <v>672.3699951171875</v>
       </c>
       <c r="E22">
-        <v>729.4000244140625</v>
+        <v>672.3699951171875</v>
       </c>
       <c r="F22">
-        <v>28370000</v>
+        <v>23469200</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>741</v>
+        <v>664.9000244140625</v>
       </c>
       <c r="B23">
-        <v>749.2999877929688</v>
+        <v>665.0499877929688</v>
       </c>
       <c r="C23">
-        <v>732.6099853515625</v>
+        <v>627.6099853515625</v>
       </c>
       <c r="D23">
-        <v>738.2000122070312</v>
+        <v>629.0399780273438</v>
       </c>
       <c r="E23">
-        <v>738.2000122070312</v>
+        <v>629.0399780273438</v>
       </c>
       <c r="F23">
-        <v>31038500</v>
+        <v>31392400</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>717.9600219726562</v>
+        <v>599.239990234375</v>
       </c>
       <c r="B24">
-        <v>724</v>
+        <v>627.0999755859375</v>
       </c>
       <c r="C24">
-        <v>703.3499755859375</v>
+        <v>595.5999755859375</v>
       </c>
       <c r="D24">
-        <v>704.739990234375</v>
+        <v>617.2000122070312</v>
       </c>
       <c r="E24">
-        <v>704.739990234375</v>
+        <v>617.2000122070312</v>
       </c>
       <c r="F24">
-        <v>29437000</v>
+        <v>46503900</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>696.4099731445312</v>
+        <v>602.489990234375</v>
       </c>
       <c r="B25">
-        <v>708.5</v>
+        <v>620.4099731445312</v>
       </c>
       <c r="C25">
-        <v>693.5999755859375</v>
+        <v>586.77001953125</v>
       </c>
       <c r="D25">
-        <v>694.4000244140625</v>
+        <v>589.8900146484375</v>
       </c>
       <c r="E25">
-        <v>694.4000244140625</v>
+        <v>589.8900146484375</v>
       </c>
       <c r="F25">
-        <v>22271000</v>
+        <v>33823600</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>699.510009765625</v>
+        <v>601.5399780273438</v>
       </c>
       <c r="B26">
-        <v>702.25</v>
+        <v>606.4600219726562</v>
       </c>
       <c r="C26">
-        <v>668.5</v>
+        <v>559.6500244140625</v>
       </c>
       <c r="D26">
-        <v>677</v>
+        <v>571.6900024414062</v>
       </c>
       <c r="E26">
-        <v>677</v>
+        <v>571.6900024414062</v>
       </c>
       <c r="F26">
-        <v>28845400</v>
+        <v>44184900</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>667.5900268554688</v>
+        <v>583.4099731445312</v>
       </c>
       <c r="B27">
-        <v>715.469970703125</v>
+        <v>592.8699951171875</v>
       </c>
       <c r="C27">
-        <v>666.1400146484375</v>
+        <v>570.4600219726562</v>
       </c>
       <c r="D27">
-        <v>709.4400024414062</v>
+        <v>589.739990234375</v>
       </c>
       <c r="E27">
-        <v>709.4400024414062</v>
+        <v>589.739990234375</v>
       </c>
       <c r="F27">
-        <v>40758700</v>
+        <v>33370900</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>703.7999877929688</v>
+        <v>575.5499877929688</v>
       </c>
       <c r="B28">
-        <v>706</v>
+        <v>589.72998046875</v>
       </c>
       <c r="C28">
-        <v>680.5</v>
+        <v>561.2000122070312</v>
       </c>
       <c r="D28">
-        <v>684.9000244140625</v>
+        <v>576.8300170898438</v>
       </c>
       <c r="E28">
-        <v>684.9000244140625</v>
+        <v>576.8300170898438</v>
       </c>
       <c r="F28">
-        <v>27043100</v>
+        <v>32390400</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>678.9400024414062</v>
+        <v>568</v>
       </c>
       <c r="B29">
-        <v>683.4500122070312</v>
+        <v>596.25</v>
       </c>
       <c r="C29">
-        <v>657.7000122070312</v>
+        <v>563.3800048828125</v>
       </c>
       <c r="D29">
-        <v>673.5999755859375</v>
+        <v>577.8699951171875</v>
       </c>
       <c r="E29">
-        <v>673.5999755859375</v>
+        <v>577.8699951171875</v>
       </c>
       <c r="F29">
-        <v>29739300</v>
+        <v>36830600</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>681.0599975585938</v>
+        <v>552.5499877929688</v>
       </c>
       <c r="B30">
-        <v>685.2999877929688</v>
+        <v>566.2100219726562</v>
       </c>
       <c r="C30">
-        <v>667.3400268554688</v>
+        <v>546.97998046875</v>
       </c>
       <c r="D30">
-        <v>670.9400024414062</v>
+        <v>563.4600219726562</v>
       </c>
       <c r="E30">
-        <v>670.9400024414062</v>
+        <v>563.4600219726562</v>
       </c>
       <c r="F30">
-        <v>21901900</v>
+        <v>39578400</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>680.760009765625</v>
+        <v>575</v>
       </c>
       <c r="B31">
-        <v>681.02001953125</v>
+        <v>588.8499755859375</v>
       </c>
       <c r="C31">
-        <v>650</v>
+        <v>571.0700073242188</v>
       </c>
       <c r="D31">
-        <v>663.5399780273438</v>
+        <v>586.780029296875</v>
       </c>
       <c r="E31">
-        <v>663.5399780273438</v>
+        <v>586.780029296875</v>
       </c>
       <c r="F31">
-        <v>27784600</v>
+        <v>30821100</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>665.7999877929688</v>
+        <v>596.1099853515625</v>
       </c>
       <c r="B32">
-        <v>690</v>
+        <v>596.6799926757812</v>
       </c>
       <c r="C32">
-        <v>660.219970703125</v>
+        <v>580</v>
       </c>
       <c r="D32">
-        <v>672.3699951171875</v>
+        <v>580.8800048828125</v>
       </c>
       <c r="E32">
-        <v>672.3699951171875</v>
+        <v>580.8800048828125</v>
       </c>
       <c r="F32">
-        <v>23469200</v>
+        <v>26030600</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>664.9000244140625</v>
+        <v>581.5999755859375</v>
       </c>
       <c r="B33">
-        <v>665.0499877929688</v>
+        <v>614.47998046875</v>
       </c>
       <c r="C33">
-        <v>627.6099853515625</v>
+        <v>573.6500244140625</v>
       </c>
       <c r="D33">
-        <v>629.0399780273438</v>
+        <v>606.4400024414062</v>
       </c>
       <c r="E33">
-        <v>629.0399780273438</v>
+        <v>606.4400024414062</v>
       </c>
       <c r="F33">
-        <v>31392400</v>
+        <v>34558100</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>599.239990234375</v>
+        <v>607.3099975585938</v>
       </c>
       <c r="B34">
-        <v>627.0999755859375</v>
+        <v>613.989990234375</v>
       </c>
       <c r="C34">
-        <v>595.5999755859375</v>
+        <v>595.7100219726562</v>
       </c>
       <c r="D34">
-        <v>617.2000122070312</v>
+        <v>604.6900024414062</v>
       </c>
       <c r="E34">
-        <v>617.2000122070312</v>
+        <v>604.6900024414062</v>
       </c>
       <c r="F34">
-        <v>46503900</v>
+        <v>28005900</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>602.489990234375</v>
+        <v>607.5599975585938</v>
       </c>
       <c r="B35">
-        <v>620.4099731445312</v>
+        <v>626.1699829101562</v>
       </c>
       <c r="C35">
-        <v>586.77001953125</v>
+        <v>601.5</v>
       </c>
       <c r="D35">
-        <v>589.8900146484375</v>
+        <v>619.1300048828125</v>
       </c>
       <c r="E35">
-        <v>589.8900146484375</v>
+        <v>619.1300048828125</v>
       </c>
       <c r="F35">
-        <v>33823600</v>
+        <v>28639300</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>601.5399780273438</v>
+        <v>620.239990234375</v>
       </c>
       <c r="B36">
-        <v>606.4600219726562</v>
+        <v>631.1300048828125</v>
       </c>
       <c r="C36">
-        <v>559.6500244140625</v>
+        <v>616.2100219726562</v>
       </c>
       <c r="D36">
-        <v>571.6900024414062</v>
+        <v>630.8499755859375</v>
       </c>
       <c r="E36">
-        <v>571.6900024414062</v>
+        <v>630.8499755859375</v>
       </c>
       <c r="F36">
-        <v>44184900</v>
+        <v>26370600</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>583.4099731445312</v>
+        <v>628.5</v>
       </c>
       <c r="B37">
-        <v>592.8699951171875</v>
+        <v>635.5900268554688</v>
       </c>
       <c r="C37">
-        <v>570.4600219726562</v>
+        <v>622.3800048828125</v>
       </c>
       <c r="D37">
-        <v>589.739990234375</v>
+        <v>625.219970703125</v>
       </c>
       <c r="E37">
-        <v>589.739990234375</v>
+        <v>625.219970703125</v>
       </c>
       <c r="F37">
-        <v>33370900</v>
+        <v>22737000</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>575.5499877929688</v>
+        <v>627.7999877929688</v>
       </c>
       <c r="B38">
-        <v>589.72998046875</v>
+        <v>633.7999877929688</v>
       </c>
       <c r="C38">
-        <v>561.2000122070312</v>
+        <v>620.5499877929688</v>
       </c>
       <c r="D38">
-        <v>576.8300170898438</v>
+        <v>623.9000244140625</v>
       </c>
       <c r="E38">
-        <v>576.8300170898438</v>
+        <v>623.9000244140625</v>
       </c>
       <c r="F38">
-        <v>32390400</v>
+        <v>18084900</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>568</v>
+        <v>620.1300048828125</v>
       </c>
       <c r="B39">
-        <v>596.25</v>
+        <v>623.3599853515625</v>
       </c>
       <c r="C39">
-        <v>563.3800048828125</v>
+        <v>599.1400146484375</v>
       </c>
       <c r="D39">
-        <v>577.8699951171875</v>
+        <v>605.1199951171875</v>
       </c>
       <c r="E39">
-        <v>577.8699951171875</v>
+        <v>605.1199951171875</v>
       </c>
       <c r="F39">
-        <v>36830600</v>
+        <v>23302800</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>552.5499877929688</v>
+        <v>601.7999877929688</v>
       </c>
       <c r="B40">
-        <v>566.2100219726562</v>
+        <v>604.5499877929688</v>
       </c>
       <c r="C40">
-        <v>546.97998046875</v>
+        <v>571.219970703125</v>
       </c>
       <c r="D40">
-        <v>563.4600219726562</v>
+        <v>572.8400268554688</v>
       </c>
       <c r="E40">
-        <v>563.4600219726562</v>
+        <v>572.8400268554688</v>
       </c>
       <c r="F40">
-        <v>39578400</v>
+        <v>30111900</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>575</v>
+        <v>579.7100219726562</v>
       </c>
       <c r="B41">
-        <v>588.8499755859375</v>
+        <v>600.6099853515625</v>
       </c>
       <c r="C41">
-        <v>571.0700073242188</v>
+        <v>577.2000122070312</v>
       </c>
       <c r="D41">
-        <v>586.780029296875</v>
+        <v>599.0499877929688</v>
       </c>
       <c r="E41">
-        <v>586.780029296875</v>
+        <v>599.0499877929688</v>
       </c>
       <c r="F41">
-        <v>30821100</v>
+        <v>24036900</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>596.1099853515625</v>
+        <v>591.8300170898438</v>
       </c>
       <c r="B42">
-        <v>596.6799926757812</v>
+        <v>610</v>
       </c>
       <c r="C42">
-        <v>580</v>
+        <v>582.8800048828125</v>
       </c>
       <c r="D42">
-        <v>580.8800048828125</v>
+        <v>605.1300048828125</v>
       </c>
       <c r="E42">
-        <v>580.8800048828125</v>
+        <v>605.1300048828125</v>
       </c>
       <c r="F42">
-        <v>26030600</v>
+        <v>22543700</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>581.5999755859375</v>
+        <v>623.010009765625</v>
       </c>
       <c r="B43">
-        <v>614.47998046875</v>
+        <v>623.0900268554688</v>
       </c>
       <c r="C43">
-        <v>573.6500244140625</v>
+        <v>595.5</v>
       </c>
       <c r="D43">
-        <v>606.4400024414062</v>
+        <v>603.5900268554688</v>
       </c>
       <c r="E43">
-        <v>606.4400024414062</v>
+        <v>603.5900268554688</v>
       </c>
       <c r="F43">
-        <v>34558100</v>
+        <v>26053400</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>607.3099975585938</v>
+        <v>602.1699829101562</v>
       </c>
       <c r="B44">
-        <v>613.989990234375</v>
+        <v>611.7899780273438</v>
       </c>
       <c r="C44">
-        <v>595.7100219726562</v>
+        <v>597.6300048828125</v>
       </c>
       <c r="D44">
-        <v>604.6900024414062</v>
+        <v>598.780029296875</v>
       </c>
       <c r="E44">
-        <v>604.6900024414062</v>
+        <v>598.780029296875</v>
       </c>
       <c r="F44">
-        <v>28005900</v>
+        <v>16584600</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>607.5599975585938</v>
+        <v>603.8800048828125</v>
       </c>
       <c r="B45">
-        <v>626.1699829101562</v>
+        <v>616.5900268554688</v>
       </c>
       <c r="C45">
-        <v>601.5</v>
+        <v>600.5</v>
       </c>
       <c r="D45">
-        <v>619.1300048828125</v>
+        <v>610.1199951171875</v>
       </c>
       <c r="E45">
-        <v>619.1300048828125</v>
+        <v>610.1199951171875</v>
       </c>
       <c r="F45">
-        <v>28639300</v>
+        <v>23919600</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>620.239990234375</v>
+        <v>610.22998046875</v>
       </c>
       <c r="B46">
-        <v>631.1300048828125</v>
+        <v>612.5599975585938</v>
       </c>
       <c r="C46">
-        <v>616.2100219726562</v>
+        <v>601.52001953125</v>
       </c>
       <c r="D46">
-        <v>630.8499755859375</v>
+        <v>609.8900146484375</v>
       </c>
       <c r="E46">
-        <v>630.8499755859375</v>
+        <v>609.8900146484375</v>
       </c>
       <c r="F46">
-        <v>26370600</v>
+        <v>16205300</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>628.5</v>
+        <v>612.22998046875</v>
       </c>
       <c r="B47">
-        <v>635.5900268554688</v>
+        <v>625.489990234375</v>
       </c>
       <c r="C47">
-        <v>622.3800048828125</v>
+        <v>609.1799926757812</v>
       </c>
       <c r="D47">
-        <v>625.219970703125</v>
+        <v>617.6900024414062</v>
       </c>
       <c r="E47">
-        <v>625.219970703125</v>
+        <v>617.6900024414062</v>
       </c>
       <c r="F47">
-        <v>22737000</v>
+        <v>20424000</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>627.7999877929688</v>
+        <v>616.6900024414062</v>
       </c>
       <c r="B48">
-        <v>633.7999877929688</v>
+        <v>616.7899780273438</v>
       </c>
       <c r="C48">
-        <v>620.5499877929688</v>
+        <v>598.22998046875</v>
       </c>
       <c r="D48">
-        <v>623.9000244140625</v>
+        <v>599.3599853515625</v>
       </c>
       <c r="E48">
-        <v>623.9000244140625</v>
+        <v>599.3599853515625</v>
       </c>
       <c r="F48">
-        <v>18084900</v>
+        <v>17764100</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>620.1300048828125</v>
+        <v>597.5399780273438</v>
       </c>
       <c r="B49">
-        <v>623.3599853515625</v>
+        <v>608.5</v>
       </c>
       <c r="C49">
-        <v>599.1400146484375</v>
+        <v>593.5</v>
       </c>
       <c r="D49">
-        <v>605.1199951171875</v>
+        <v>604.8699951171875</v>
       </c>
       <c r="E49">
-        <v>605.1199951171875</v>
+        <v>604.8699951171875</v>
       </c>
       <c r="F49">
-        <v>23302800</v>
+        <v>22144100</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>601.7999877929688</v>
+        <v>601.8900146484375</v>
       </c>
       <c r="B50">
-        <v>604.5499877929688</v>
+        <v>621.469970703125</v>
       </c>
       <c r="C50">
-        <v>571.219970703125</v>
+        <v>601.3400268554688</v>
       </c>
       <c r="D50">
-        <v>572.8400268554688</v>
+        <v>616.5999755859375</v>
       </c>
       <c r="E50">
-        <v>572.8400268554688</v>
+        <v>616.5999755859375</v>
       </c>
       <c r="F50">
-        <v>30111900</v>
+        <v>22701400</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>579.7100219726562</v>
+        <v>613.3699951171875</v>
       </c>
       <c r="B51">
-        <v>600.6099853515625</v>
+        <v>628.3499755859375</v>
       </c>
       <c r="C51">
-        <v>577.2000122070312</v>
+        <v>611.7999877929688</v>
       </c>
       <c r="D51">
-        <v>599.0499877929688</v>
+        <v>623.3099975585938</v>
       </c>
       <c r="E51">
-        <v>599.0499877929688</v>
+        <v>623.3099975585938</v>
       </c>
       <c r="F51">
-        <v>24036900</v>
+        <v>24560900</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>591.8300170898438</v>
+        <v>624.47998046875</v>
       </c>
       <c r="B52">
-        <v>610</v>
+        <v>631.3900146484375</v>
       </c>
       <c r="C52">
-        <v>582.8800048828125</v>
+        <v>608.8800048828125</v>
       </c>
       <c r="D52">
-        <v>605.1300048828125</v>
+        <v>620.8300170898438</v>
       </c>
       <c r="E52">
-        <v>605.1300048828125</v>
+        <v>620.8300170898438</v>
       </c>
       <c r="F52">
-        <v>22543700</v>
+        <v>24812700</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>623.010009765625</v>
+        <v>618.25</v>
       </c>
       <c r="B53">
-        <v>623.0900268554688</v>
+        <v>628.5700073242188</v>
       </c>
       <c r="C53">
-        <v>595.5</v>
+        <v>615.5</v>
       </c>
       <c r="D53">
-        <v>603.5900268554688</v>
+        <v>623.7100219726562</v>
       </c>
       <c r="E53">
-        <v>603.5900268554688</v>
+        <v>623.7100219726562</v>
       </c>
       <c r="F53">
-        <v>26053400</v>
+        <v>19158900</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>602.1699829101562</v>
+        <v>632</v>
       </c>
       <c r="B54">
-        <v>611.7899780273438</v>
+        <v>657.2000122070312</v>
       </c>
       <c r="C54">
-        <v>597.6300048828125</v>
+        <v>630.0399780273438</v>
       </c>
       <c r="D54">
-        <v>598.780029296875</v>
+        <v>656.5700073242188</v>
       </c>
       <c r="E54">
-        <v>598.780029296875</v>
+        <v>656.5700073242188</v>
       </c>
       <c r="F54">
-        <v>16584600</v>
+        <v>31099200</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>603.8800048828125</v>
+        <v>674.989990234375</v>
       </c>
       <c r="B55">
-        <v>616.5900268554688</v>
+        <v>697.6199951171875</v>
       </c>
       <c r="C55">
-        <v>600.5</v>
+        <v>667.6099853515625</v>
       </c>
       <c r="D55">
-        <v>610.1199951171875</v>
+        <v>679.8200073242188</v>
       </c>
       <c r="E55">
-        <v>610.1199951171875</v>
+        <v>679.8200073242188</v>
       </c>
       <c r="F55">
-        <v>23919600</v>
+        <v>45982400</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>610.22998046875</v>
+        <v>689.5800170898438</v>
       </c>
       <c r="B56">
-        <v>612.5599975585938</v>
+        <v>693.8099975585938</v>
       </c>
       <c r="C56">
-        <v>601.52001953125</v>
+        <v>668.7000122070312</v>
       </c>
       <c r="D56">
-        <v>609.8900146484375</v>
+        <v>671.8699951171875</v>
       </c>
       <c r="E56">
-        <v>609.8900146484375</v>
+        <v>671.8699951171875</v>
       </c>
       <c r="F56">
-        <v>16205300</v>
+        <v>32496700</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>612.22998046875</v>
+        <v>671.6400146484375</v>
       </c>
       <c r="B57">
-        <v>625.489990234375</v>
+        <v>694.7000122070312</v>
       </c>
       <c r="C57">
-        <v>609.1799926757812</v>
+        <v>670.3200073242188</v>
       </c>
       <c r="D57">
-        <v>617.6900024414062</v>
+        <v>688.719970703125</v>
       </c>
       <c r="E57">
-        <v>617.6900024414062</v>
+        <v>688.719970703125</v>
       </c>
       <c r="F57">
-        <v>20424000</v>
+        <v>21628200</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>616.6900024414062</v>
+        <v>684.6500244140625</v>
       </c>
       <c r="B58">
-        <v>616.7899780273438</v>
+        <v>687.510009765625</v>
       </c>
       <c r="C58">
-        <v>598.22998046875</v>
+        <v>675.8900146484375</v>
       </c>
       <c r="D58">
-        <v>599.3599853515625</v>
+        <v>680.760009765625</v>
       </c>
       <c r="E58">
-        <v>599.3599853515625</v>
+        <v>680.760009765625</v>
       </c>
       <c r="F58">
-        <v>17764100</v>
+        <v>17381300</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>597.5399780273438</v>
+        <v>679.77001953125</v>
       </c>
       <c r="B59">
-        <v>608.5</v>
+        <v>692.8099975585938</v>
       </c>
       <c r="C59">
-        <v>593.5</v>
+        <v>678.1400146484375</v>
       </c>
       <c r="D59">
-        <v>604.8699951171875</v>
+        <v>679.7000122070312</v>
       </c>
       <c r="E59">
-        <v>604.8699951171875</v>
+        <v>679.7000122070312</v>
       </c>
       <c r="F59">
-        <v>22144100</v>
+        <v>18924900</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>601.8900146484375</v>
+        <v>683.9199829101562</v>
       </c>
       <c r="B60">
-        <v>621.469970703125</v>
+        <v>687.989990234375</v>
       </c>
       <c r="C60">
-        <v>601.3400268554688</v>
+        <v>672.7999877929688</v>
       </c>
       <c r="D60">
-        <v>616.5999755859375</v>
+        <v>677.9199829101562</v>
       </c>
       <c r="E60">
-        <v>616.5999755859375</v>
+        <v>677.9199829101562</v>
       </c>
       <c r="F60">
-        <v>22701400</v>
+        <v>18634500</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>613.3699951171875</v>
+        <v>678.97998046875</v>
       </c>
       <c r="B61">
-        <v>628.3499755859375</v>
+        <v>700</v>
       </c>
       <c r="C61">
-        <v>611.7999877929688</v>
+        <v>673.260009765625</v>
       </c>
       <c r="D61">
-        <v>623.3099975585938</v>
+        <v>678.9000244140625</v>
       </c>
       <c r="E61">
-        <v>623.3099975585938</v>
+        <v>678.9000244140625</v>
       </c>
       <c r="F61">
-        <v>24560900</v>
+        <v>27054500</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>624.47998046875</v>
+        <v>681.7100219726562</v>
       </c>
       <c r="B62">
-        <v>631.3900146484375</v>
+        <v>684</v>
       </c>
       <c r="C62">
-        <v>608.8800048828125</v>
+        <v>651.4000244140625</v>
       </c>
       <c r="D62">
-        <v>620.8300170898438</v>
+        <v>659.5800170898438</v>
       </c>
       <c r="E62">
-        <v>620.8300170898438</v>
+        <v>659.5800170898438</v>
       </c>
       <c r="F62">
-        <v>24812700</v>
+        <v>23284500</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>618.25</v>
+        <v>664.27001953125</v>
       </c>
       <c r="B63">
-        <v>628.5700073242188</v>
+        <v>665.7000122070312</v>
       </c>
       <c r="C63">
-        <v>615.5</v>
+        <v>638.3200073242188</v>
       </c>
       <c r="D63">
-        <v>623.7100219726562</v>
+        <v>644.6500244140625</v>
       </c>
       <c r="E63">
-        <v>623.7100219726562</v>
+        <v>644.6500244140625</v>
       </c>
       <c r="F63">
-        <v>19158900</v>
+        <v>18792000</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>632</v>
+        <v>628.3699951171875</v>
       </c>
       <c r="B64">
-        <v>657.2000122070312</v>
+        <v>654.4299926757812</v>
       </c>
       <c r="C64">
-        <v>630.0399780273438</v>
+        <v>620.4600219726562</v>
       </c>
       <c r="D64">
-        <v>656.5700073242188</v>
+        <v>652.8099975585938</v>
       </c>
       <c r="E64">
-        <v>656.5700073242188</v>
+        <v>652.8099975585938</v>
       </c>
       <c r="F64">
-        <v>31099200</v>
+        <v>22773300</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>674.989990234375</v>
+        <v>653.1799926757812</v>
       </c>
       <c r="B65">
-        <v>697.6199951171875</v>
+        <v>658.9099731445312</v>
       </c>
       <c r="C65">
-        <v>667.6099853515625</v>
+        <v>644.6900024414062</v>
       </c>
       <c r="D65">
-        <v>679.8200073242188</v>
+        <v>656.9500122070312</v>
       </c>
       <c r="E65">
-        <v>679.8200073242188</v>
+        <v>656.9500122070312</v>
       </c>
       <c r="F65">
-        <v>45982400</v>
+        <v>18140500</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>689.5800170898438</v>
+        <v>662.2000122070312</v>
       </c>
       <c r="B66">
-        <v>693.8099975585938</v>
+        <v>687.239990234375</v>
       </c>
       <c r="C66">
-        <v>668.7000122070312</v>
+        <v>662.1599731445312</v>
       </c>
       <c r="D66">
-        <v>671.8699951171875</v>
+        <v>685.7000122070312</v>
       </c>
       <c r="E66">
-        <v>671.8699951171875</v>
+        <v>685.7000122070312</v>
       </c>
       <c r="F66">
-        <v>32496700</v>
+        <v>25927000</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>671.6400146484375</v>
+        <v>686.3200073242188</v>
       </c>
       <c r="B67">
-        <v>694.7000122070312</v>
+        <v>693.280029296875</v>
       </c>
       <c r="C67">
-        <v>670.3200073242188</v>
+        <v>666.2999877929688</v>
       </c>
       <c r="D67">
-        <v>688.719970703125</v>
+        <v>668.5399780273438</v>
       </c>
       <c r="E67">
-        <v>688.719970703125</v>
+        <v>668.5399780273438</v>
       </c>
       <c r="F67">
-        <v>21628200</v>
+        <v>20966100</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>684.6500244140625</v>
+        <v>670.75</v>
       </c>
       <c r="B68">
-        <v>687.510009765625</v>
+        <v>678.6099853515625</v>
       </c>
       <c r="C68">
-        <v>675.8900146484375</v>
+        <v>652.8400268554688</v>
       </c>
       <c r="D68">
-        <v>680.760009765625</v>
+        <v>653.3800048828125</v>
       </c>
       <c r="E68">
-        <v>680.760009765625</v>
+        <v>653.3800048828125</v>
       </c>
       <c r="F68">
-        <v>17381300</v>
+        <v>21641200</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>679.77001953125</v>
+        <v>658.3900146484375</v>
       </c>
       <c r="B69">
-        <v>692.8099975585938</v>
+        <v>666.1400146484375</v>
       </c>
       <c r="C69">
-        <v>678.1400146484375</v>
+        <v>637.8800048828125</v>
       </c>
       <c r="D69">
-        <v>679.7000122070312</v>
+        <v>650.5999755859375</v>
       </c>
       <c r="E69">
-        <v>679.7000122070312</v>
+        <v>650.5999755859375</v>
       </c>
       <c r="F69">
-        <v>18924900</v>
+        <v>20209600</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>683.9199829101562</v>
+        <v>654.6799926757812</v>
       </c>
       <c r="B70">
-        <v>687.989990234375</v>
+        <v>656.7000122070312</v>
       </c>
       <c r="C70">
-        <v>672.7999877929688</v>
+        <v>642.2000122070312</v>
       </c>
       <c r="D70">
-        <v>677.9199829101562</v>
+        <v>644.219970703125</v>
       </c>
       <c r="E70">
-        <v>677.9199829101562</v>
+        <v>644.219970703125</v>
       </c>
       <c r="F70">
-        <v>18634500</v>
+        <v>16371000</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>678.97998046875</v>
+        <v>629.8900146484375</v>
       </c>
       <c r="B71">
-        <v>700</v>
+        <v>647.2000122070312</v>
       </c>
       <c r="C71">
-        <v>673.260009765625</v>
+        <v>621.2899780273438</v>
       </c>
       <c r="D71">
-        <v>678.9000244140625</v>
+        <v>646.219970703125</v>
       </c>
       <c r="E71">
-        <v>678.9000244140625</v>
+        <v>646.219970703125</v>
       </c>
       <c r="F71">
-        <v>27054500</v>
+        <v>21297100</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>681.7100219726562</v>
+        <v>651.989990234375</v>
       </c>
       <c r="B72">
-        <v>684</v>
+        <v>662.3900146484375</v>
       </c>
       <c r="C72">
-        <v>651.4000244140625</v>
+        <v>640.5</v>
       </c>
       <c r="D72">
-        <v>659.5800170898438</v>
+        <v>660.5</v>
       </c>
       <c r="E72">
-        <v>659.5800170898438</v>
+        <v>660.5</v>
       </c>
       <c r="F72">
-        <v>23284500</v>
+        <v>15487100</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>664.27001953125</v>
+        <v>659.6099853515625</v>
       </c>
       <c r="B73">
-        <v>665.7000122070312</v>
+        <v>664.8599853515625</v>
       </c>
       <c r="C73">
-        <v>638.3200073242188</v>
+        <v>650.2899780273438</v>
       </c>
       <c r="D73">
-        <v>644.6500244140625</v>
+        <v>655.2899780273438</v>
       </c>
       <c r="E73">
-        <v>644.6500244140625</v>
+        <v>655.2899780273438</v>
       </c>
       <c r="F73">
-        <v>18792000</v>
+        <v>13953300</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>628.3699951171875</v>
+        <v>656.4400024414062</v>
       </c>
       <c r="B74">
-        <v>654.4299926757812</v>
+        <v>662.1699829101562</v>
       </c>
       <c r="C74">
-        <v>620.4600219726562</v>
+        <v>644.5999755859375</v>
       </c>
       <c r="D74">
-        <v>652.8099975585938</v>
+        <v>649.260009765625</v>
       </c>
       <c r="E74">
-        <v>652.8099975585938</v>
+        <v>649.260009765625</v>
       </c>
       <c r="F74">
-        <v>22773300</v>
+        <v>15105700</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>653.1799926757812</v>
+        <v>646.3599853515625</v>
       </c>
       <c r="B75">
-        <v>658.9099731445312</v>
+        <v>648.7999877929688</v>
       </c>
       <c r="C75">
-        <v>644.6900024414062</v>
+        <v>637.2999877929688</v>
       </c>
       <c r="D75">
-        <v>656.9500122070312</v>
+        <v>643.3800048828125</v>
       </c>
       <c r="E75">
-        <v>656.9500122070312</v>
+        <v>643.3800048828125</v>
       </c>
       <c r="F75">
-        <v>18140500</v>
+        <v>14604900</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>662.2000122070312</v>
+        <v>650.969970703125</v>
       </c>
       <c r="B76">
-        <v>687.239990234375</v>
+        <v>668.2000122070312</v>
       </c>
       <c r="C76">
-        <v>662.1599731445312</v>
+        <v>647.1099853515625</v>
       </c>
       <c r="D76">
-        <v>685.7000122070312</v>
+        <v>657.6199951171875</v>
       </c>
       <c r="E76">
-        <v>685.7000122070312</v>
+        <v>657.6199951171875</v>
       </c>
       <c r="F76">
-        <v>25927000</v>
+        <v>25336600</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>686.3200073242188</v>
+        <v>663.4000244140625</v>
       </c>
       <c r="B77">
-        <v>693.280029296875</v>
+        <v>666.5</v>
       </c>
       <c r="C77">
-        <v>666.2999877929688</v>
+        <v>627.239990234375</v>
       </c>
       <c r="D77">
-        <v>668.5399780273438</v>
+        <v>644.780029296875</v>
       </c>
       <c r="E77">
-        <v>668.5399780273438</v>
+        <v>644.780029296875</v>
       </c>
       <c r="F77">
-        <v>20966100</v>
+        <v>32813300</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>670.75</v>
+        <v>647</v>
       </c>
       <c r="B78">
-        <v>678.6099853515625</v>
+        <v>654.969970703125</v>
       </c>
       <c r="C78">
-        <v>652.8400268554688</v>
+        <v>639.4000244140625</v>
       </c>
       <c r="D78">
-        <v>653.3800048828125</v>
+        <v>646.97998046875</v>
       </c>
       <c r="E78">
-        <v>653.3800048828125</v>
+        <v>646.97998046875</v>
       </c>
       <c r="F78">
-        <v>21641200</v>
+        <v>16006600</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>658.3900146484375</v>
+        <v>649.7899780273438</v>
       </c>
       <c r="B79">
-        <v>666.1400146484375</v>
+        <v>683.6900024414062</v>
       </c>
       <c r="C79">
-        <v>637.8800048828125</v>
+        <v>648.7999877929688</v>
       </c>
       <c r="D79">
-        <v>650.5999755859375</v>
+        <v>677.3499755859375</v>
       </c>
       <c r="E79">
-        <v>650.5999755859375</v>
+        <v>677.3499755859375</v>
       </c>
       <c r="F79">
-        <v>20209600</v>
+        <v>30394600</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>654.6799926757812</v>
+        <v>671.760009765625</v>
       </c>
       <c r="B80">
-        <v>656.7000122070312</v>
+        <v>697.530029296875</v>
       </c>
       <c r="C80">
-        <v>642.2000122070312</v>
+        <v>669</v>
       </c>
       <c r="D80">
-        <v>644.219970703125</v>
+        <v>687.2000122070312</v>
       </c>
       <c r="E80">
-        <v>644.219970703125</v>
+        <v>687.2000122070312</v>
       </c>
       <c r="F80">
-        <v>16371000</v>
+        <v>29600500</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>629.8900146484375</v>
+        <v>700</v>
       </c>
       <c r="B81">
-        <v>647.2000122070312</v>
+        <v>726.9400024414062</v>
       </c>
       <c r="C81">
-        <v>621.2899780273438</v>
+        <v>698.4000244140625</v>
       </c>
       <c r="D81">
-        <v>646.219970703125</v>
+        <v>709.6699829101562</v>
       </c>
       <c r="E81">
-        <v>646.219970703125</v>
+        <v>709.6699829101562</v>
       </c>
       <c r="F81">
-        <v>21297100</v>
+        <v>33615800</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>651.989990234375</v>
+        <v>719</v>
       </c>
       <c r="B82">
-        <v>662.3900146484375</v>
+        <v>722.6500244140625</v>
       </c>
       <c r="C82">
-        <v>640.5</v>
+        <v>701.010009765625</v>
       </c>
       <c r="D82">
-        <v>660.5</v>
+        <v>709.739990234375</v>
       </c>
       <c r="E82">
-        <v>660.5</v>
+        <v>709.739990234375</v>
       </c>
       <c r="F82">
-        <v>15487100</v>
+        <v>21620300</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>659.6099853515625</v>
+        <v>711</v>
       </c>
       <c r="B83">
-        <v>664.8599853515625</v>
+        <v>724.9000244140625</v>
       </c>
       <c r="C83">
-        <v>650.2899780273438</v>
+        <v>708.9299926757812</v>
       </c>
       <c r="D83">
-        <v>655.2899780273438</v>
+        <v>710.9199829101562</v>
       </c>
       <c r="E83">
-        <v>655.2899780273438</v>
+        <v>710.9199829101562</v>
       </c>
       <c r="F83">
-        <v>13953300</v>
+        <v>17002600</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>656.4400024414062</v>
+        <v>716</v>
       </c>
       <c r="B84">
-        <v>662.1699829101562</v>
+        <v>720.9500122070312</v>
       </c>
       <c r="C84">
-        <v>644.5999755859375</v>
+        <v>711.4099731445312</v>
       </c>
       <c r="D84">
-        <v>649.260009765625</v>
+        <v>714.6300048828125</v>
       </c>
       <c r="E84">
-        <v>649.260009765625</v>
+        <v>714.6300048828125</v>
       </c>
       <c r="F84">
-        <v>15105700</v>
+        <v>12919600</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>646.3599853515625</v>
+        <v>711.9000244140625</v>
       </c>
       <c r="B85">
-        <v>648.7999877929688</v>
+        <v>716.3300170898438</v>
       </c>
       <c r="C85">
-        <v>637.2999877929688</v>
+        <v>697.6300048828125</v>
       </c>
       <c r="D85">
-        <v>643.3800048828125</v>
+        <v>699.0999755859375</v>
       </c>
       <c r="E85">
-        <v>643.3800048828125</v>
+        <v>699.0999755859375</v>
       </c>
       <c r="F85">
-        <v>14604900</v>
+        <v>15576200</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>650.969970703125</v>
+        <v>710.1699829101562</v>
       </c>
       <c r="B86">
-        <v>668.2000122070312</v>
+        <v>719.030029296875</v>
       </c>
       <c r="C86">
-        <v>647.1099853515625</v>
+        <v>705.1300048828125</v>
       </c>
       <c r="D86">
-        <v>657.6199951171875</v>
+        <v>713.760009765625</v>
       </c>
       <c r="E86">
-        <v>657.6199951171875</v>
+        <v>713.760009765625</v>
       </c>
       <c r="F86">
-        <v>25336600</v>
+        <v>14715300</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>663.4000244140625</v>
+        <v>713.989990234375</v>
       </c>
       <c r="B87">
-        <v>666.5</v>
+        <v>716.5900268554688</v>
       </c>
       <c r="C87">
-        <v>627.239990234375</v>
+        <v>701.8800048828125</v>
       </c>
       <c r="D87">
-        <v>644.780029296875</v>
+        <v>709.989990234375</v>
       </c>
       <c r="E87">
-        <v>644.780029296875</v>
+        <v>709.989990234375</v>
       </c>
       <c r="F87">
-        <v>32813300</v>
+        <v>13432300</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>647</v>
+        <v>712.7100219726562</v>
       </c>
       <c r="B88">
-        <v>654.969970703125</v>
+        <v>715.1799926757812</v>
       </c>
       <c r="C88">
-        <v>639.4000244140625</v>
+        <v>704.2100219726562</v>
       </c>
       <c r="D88">
-        <v>646.97998046875</v>
+        <v>707.8200073242188</v>
       </c>
       <c r="E88">
-        <v>646.97998046875</v>
+        <v>707.8200073242188</v>
       </c>
       <c r="F88">
-        <v>16006600</v>
+        <v>9800600</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>649.7899780273438</v>
+        <v>706.3400268554688</v>
       </c>
       <c r="B89">
-        <v>683.6900024414062</v>
+        <v>722.7999877929688</v>
       </c>
       <c r="C89">
-        <v>648.7999877929688</v>
+        <v>699.4000244140625</v>
       </c>
       <c r="D89">
-        <v>677.3499755859375</v>
+        <v>722.25</v>
       </c>
       <c r="E89">
-        <v>677.3499755859375</v>
+        <v>722.25</v>
       </c>
       <c r="F89">
-        <v>30394600</v>
+        <v>17459100</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>671.760009765625</v>
+        <v>723.7100219726562</v>
       </c>
       <c r="B90">
-        <v>697.530029296875</v>
+        <v>729.9000244140625</v>
       </c>
       <c r="C90">
-        <v>669</v>
+        <v>714.3400268554688</v>
       </c>
       <c r="D90">
-        <v>687.2000122070312</v>
+        <v>717.1699829101562</v>
       </c>
       <c r="E90">
-        <v>687.2000122070312</v>
+        <v>717.1699829101562</v>
       </c>
       <c r="F90">
-        <v>29600500</v>
+        <v>16698900</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>700</v>
+        <v>705.0700073242188</v>
       </c>
       <c r="B91">
-        <v>726.9400024414062</v>
+        <v>709.5</v>
       </c>
       <c r="C91">
-        <v>698.4000244140625</v>
+        <v>676.4000244140625</v>
       </c>
       <c r="D91">
-        <v>709.6699829101562</v>
+        <v>686.1699829101562</v>
       </c>
       <c r="E91">
-        <v>709.6699829101562</v>
+        <v>686.1699829101562</v>
       </c>
       <c r="F91">
-        <v>33615800</v>
+        <v>22677400</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>719</v>
+        <v>672.6599731445312</v>
       </c>
       <c r="B92">
-        <v>722.6500244140625</v>
+        <v>674.5800170898438</v>
       </c>
       <c r="C92">
-        <v>701.010009765625</v>
+        <v>648.8400268554688</v>
       </c>
       <c r="D92">
-        <v>709.739990234375</v>
+        <v>665.7100219726562</v>
       </c>
       <c r="E92">
-        <v>709.739990234375</v>
+        <v>665.7100219726562</v>
       </c>
       <c r="F92">
-        <v>21620300</v>
+        <v>23721300</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>711</v>
+        <v>669.75</v>
       </c>
       <c r="B93">
-        <v>724.9000244140625</v>
+        <v>695.77001953125</v>
       </c>
       <c r="C93">
-        <v>708.9299926757812</v>
+        <v>669.3499755859375</v>
       </c>
       <c r="D93">
-        <v>710.9199829101562</v>
+        <v>688.989990234375</v>
       </c>
       <c r="E93">
-        <v>710.9199829101562</v>
+        <v>688.989990234375</v>
       </c>
       <c r="F93">
-        <v>17002600</v>
+        <v>20349400</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>716</v>
+        <v>678.2100219726562</v>
       </c>
       <c r="B94">
-        <v>720.9500122070312</v>
+        <v>686.5499877929688</v>
       </c>
       <c r="C94">
-        <v>711.4099731445312</v>
+        <v>667.5900268554688</v>
       </c>
       <c r="D94">
-        <v>714.6300048828125</v>
+        <v>673.469970703125</v>
       </c>
       <c r="E94">
-        <v>714.6300048828125</v>
+        <v>673.469970703125</v>
       </c>
       <c r="F94">
-        <v>12919600</v>
+        <v>14313500</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>711.9000244140625</v>
+        <v>682.8499755859375</v>
       </c>
       <c r="B95">
-        <v>716.3300170898438</v>
+        <v>692.1300048828125</v>
       </c>
       <c r="C95">
-        <v>697.6300048828125</v>
+        <v>673.7000122070312</v>
       </c>
       <c r="D95">
-        <v>699.0999755859375</v>
+        <v>680.260009765625</v>
       </c>
       <c r="E95">
-        <v>699.0999755859375</v>
+        <v>680.260009765625</v>
       </c>
       <c r="F95">
-        <v>15576200</v>
+        <v>14781800</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>710.1699829101562</v>
+        <v>685.4400024414062</v>
       </c>
       <c r="B96">
-        <v>719.030029296875</v>
+        <v>712.1300048828125</v>
       </c>
       <c r="C96">
-        <v>705.1300048828125</v>
+        <v>680.75</v>
       </c>
       <c r="D96">
-        <v>713.760009765625</v>
+        <v>706.2999877929688</v>
       </c>
       <c r="E96">
-        <v>713.760009765625</v>
+        <v>706.2999877929688</v>
       </c>
       <c r="F96">
-        <v>14715300</v>
+        <v>20264900</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>713.989990234375</v>
+        <v>710.6799926757812</v>
       </c>
       <c r="B97">
-        <v>716.5900268554688</v>
+        <v>715.219970703125</v>
       </c>
       <c r="C97">
-        <v>701.8800048828125</v>
+        <v>702.6400146484375</v>
       </c>
       <c r="D97">
-        <v>709.989990234375</v>
+        <v>708.489990234375</v>
       </c>
       <c r="E97">
-        <v>709.989990234375</v>
+        <v>708.489990234375</v>
       </c>
       <c r="F97">
-        <v>13432300</v>
+        <v>13083100</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>712.7100219726562</v>
+        <v>707.030029296875</v>
       </c>
       <c r="B98">
-        <v>715.1799926757812</v>
+        <v>716.969970703125</v>
       </c>
       <c r="C98">
-        <v>704.2100219726562</v>
+        <v>704</v>
       </c>
       <c r="D98">
-        <v>707.8200073242188</v>
+        <v>711.2000122070312</v>
       </c>
       <c r="E98">
-        <v>707.8200073242188</v>
+        <v>711.2000122070312</v>
       </c>
       <c r="F98">
-        <v>9800600</v>
+        <v>12645600</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>706.3400268554688</v>
+        <v>708.3099975585938</v>
       </c>
       <c r="B99">
-        <v>722.7999877929688</v>
+        <v>715.4000244140625</v>
       </c>
       <c r="C99">
-        <v>699.4000244140625</v>
+        <v>697.6199951171875</v>
       </c>
       <c r="D99">
-        <v>722.25</v>
+        <v>701.1599731445312</v>
       </c>
       <c r="E99">
-        <v>722.25</v>
+        <v>701.1599731445312</v>
       </c>
       <c r="F99">
-        <v>17459100</v>
+        <v>13214300</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>723.7100219726562</v>
+        <v>705</v>
       </c>
       <c r="B100">
-        <v>729.9000244140625</v>
+        <v>715</v>
       </c>
       <c r="C100">
-        <v>714.3400268554688</v>
+        <v>702.0999755859375</v>
       </c>
       <c r="D100">
-        <v>717.1699829101562</v>
+        <v>711.9199829101562</v>
       </c>
       <c r="E100">
-        <v>717.1699829101562</v>
+        <v>711.9199829101562</v>
       </c>
       <c r="F100">
-        <v>16698900</v>
+        <v>13762100</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>705.0700073242188</v>
+        <v>714.719970703125</v>
       </c>
       <c r="B101">
-        <v>709.5</v>
+        <v>731</v>
       </c>
       <c r="C101">
-        <v>676.4000244140625</v>
+        <v>712.72998046875</v>
       </c>
       <c r="D101">
-        <v>686.1699829101562</v>
+        <v>730.9099731445312</v>
       </c>
       <c r="E101">
-        <v>686.1699829101562</v>
+        <v>730.9099731445312</v>
       </c>
       <c r="F101">
-        <v>22677400</v>
+        <v>18604200</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>672.6599731445312</v>
+        <v>733</v>
       </c>
       <c r="B102">
-        <v>674.5800170898438</v>
+        <v>740.3900146484375</v>
       </c>
       <c r="C102">
-        <v>648.8400268554688</v>
+        <v>726.4400024414062</v>
       </c>
       <c r="D102">
-        <v>665.7100219726562</v>
+        <v>735.719970703125</v>
       </c>
       <c r="E102">
-        <v>665.7100219726562</v>
+        <v>735.719970703125</v>
       </c>
       <c r="F102">
-        <v>23721300</v>
+        <v>20855400</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>669.75</v>
+        <v>734.0800170898438</v>
       </c>
       <c r="B103">
-        <v>695.77001953125</v>
+        <v>741.989990234375</v>
       </c>
       <c r="C103">
-        <v>669.3499755859375</v>
+        <v>731.27001953125</v>
       </c>
       <c r="D103">
-        <v>688.989990234375</v>
+        <v>734.0900268554688</v>
       </c>
       <c r="E103">
-        <v>688.989990234375</v>
+        <v>734.0900268554688</v>
       </c>
       <c r="F103">
-        <v>20349400</v>
+        <v>13204300</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>678.2100219726562</v>
+        <v>734.5</v>
       </c>
       <c r="B104">
-        <v>686.5499877929688</v>
+        <v>740.969970703125</v>
       </c>
       <c r="C104">
-        <v>667.5900268554688</v>
+        <v>730.5399780273438</v>
       </c>
       <c r="D104">
-        <v>673.469970703125</v>
+        <v>732.3900146484375</v>
       </c>
       <c r="E104">
-        <v>673.469970703125</v>
+        <v>732.3900146484375</v>
       </c>
       <c r="F104">
-        <v>14313500</v>
+        <v>12777300</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>682.8499755859375</v>
+        <v>732.25</v>
       </c>
       <c r="B105">
-        <v>692.1300048828125</v>
+        <v>734</v>
       </c>
       <c r="C105">
-        <v>673.7000122070312</v>
+        <v>724.2000122070312</v>
       </c>
       <c r="D105">
-        <v>680.260009765625</v>
+        <v>733.5700073242188</v>
       </c>
       <c r="E105">
-        <v>680.260009765625</v>
+        <v>733.5700073242188</v>
       </c>
       <c r="F105">
-        <v>14781800</v>
+        <v>15246100</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>685.4400024414062</v>
+        <v>740</v>
       </c>
       <c r="B106">
-        <v>712.1300048828125</v>
+        <v>760.2000122070312</v>
       </c>
       <c r="C106">
-        <v>680.75</v>
+        <v>739.260009765625</v>
       </c>
       <c r="D106">
-        <v>706.2999877929688</v>
+        <v>752.9199829101562</v>
       </c>
       <c r="E106">
-        <v>706.2999877929688</v>
+        <v>752.9199829101562</v>
       </c>
       <c r="F106">
-        <v>20264900</v>
+        <v>20039800</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>710.6799926757812</v>
+        <v>761.5800170898438</v>
       </c>
       <c r="B107">
-        <v>715.219970703125</v>
+        <v>764.4500122070312</v>
       </c>
       <c r="C107">
-        <v>702.6400146484375</v>
+        <v>740.77001953125</v>
       </c>
       <c r="D107">
-        <v>708.489990234375</v>
+        <v>753.8699951171875</v>
       </c>
       <c r="E107">
-        <v>708.489990234375</v>
+        <v>753.8699951171875</v>
       </c>
       <c r="F107">
-        <v>13083100</v>
+        <v>18793000</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>707.030029296875</v>
+        <v>753.4099731445312</v>
       </c>
       <c r="B108">
-        <v>716.969970703125</v>
+        <v>762.0999755859375</v>
       </c>
       <c r="C108">
-        <v>704</v>
+        <v>751.6300048828125</v>
       </c>
       <c r="D108">
-        <v>711.2000122070312</v>
+        <v>754.8599853515625</v>
       </c>
       <c r="E108">
-        <v>711.2000122070312</v>
+        <v>754.8599853515625</v>
       </c>
       <c r="F108">
-        <v>12645600</v>
+        <v>14077700</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>708.3099975585938</v>
+        <v>759.5999755859375</v>
       </c>
       <c r="B109">
-        <v>715.4000244140625</v>
+        <v>762.6099853515625</v>
       </c>
       <c r="C109">
-        <v>697.6199951171875</v>
+        <v>734.52001953125</v>
       </c>
       <c r="D109">
-        <v>701.1599731445312</v>
+        <v>736.27001953125</v>
       </c>
       <c r="E109">
-        <v>701.1599731445312</v>
+        <v>736.27001953125</v>
       </c>
       <c r="F109">
-        <v>13214300</v>
+        <v>15114300</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>705</v>
+        <v>740.2100219726562</v>
       </c>
       <c r="B110">
-        <v>715</v>
+        <v>744.780029296875</v>
       </c>
       <c r="C110">
-        <v>702.0999755859375</v>
+        <v>708.8499755859375</v>
       </c>
       <c r="D110">
-        <v>711.9199829101562</v>
+        <v>743</v>
       </c>
       <c r="E110">
-        <v>711.9199829101562</v>
+        <v>743</v>
       </c>
       <c r="F110">
-        <v>13762100</v>
+        <v>22952500</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>714.719970703125</v>
+        <v>742.5700073242188</v>
       </c>
       <c r="B111">
-        <v>731</v>
+        <v>754.469970703125</v>
       </c>
       <c r="C111">
-        <v>712.72998046875</v>
+        <v>736.4000244140625</v>
       </c>
       <c r="D111">
-        <v>730.9099731445312</v>
+        <v>744.489990234375</v>
       </c>
       <c r="E111">
-        <v>730.9099731445312</v>
+        <v>744.489990234375</v>
       </c>
       <c r="F111">
-        <v>18604200</v>
+        <v>18524900</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="B112">
-        <v>740.3900146484375</v>
+        <v>756.8599853515625</v>
       </c>
       <c r="C112">
-        <v>726.4400024414062</v>
+        <v>738.3599853515625</v>
       </c>
       <c r="D112">
-        <v>735.719970703125</v>
+        <v>755.8300170898438</v>
       </c>
       <c r="E112">
-        <v>735.719970703125</v>
+        <v>755.8300170898438</v>
       </c>
       <c r="F112">
-        <v>20855400</v>
+        <v>15357700</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>734.0800170898438</v>
+        <v>752.8300170898438</v>
       </c>
       <c r="B113">
-        <v>741.989990234375</v>
+        <v>758.9099731445312</v>
       </c>
       <c r="C113">
-        <v>731.27001953125</v>
+        <v>747.6099853515625</v>
       </c>
       <c r="D113">
-        <v>734.0900268554688</v>
+        <v>756.989990234375</v>
       </c>
       <c r="E113">
-        <v>734.0900268554688</v>
+        <v>756.989990234375</v>
       </c>
       <c r="F113">
-        <v>13204300</v>
+        <v>13923400</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>734.5</v>
+        <v>757.1500244140625</v>
       </c>
       <c r="B114">
-        <v>740.969970703125</v>
+        <v>761.0399780273438</v>
       </c>
       <c r="C114">
-        <v>730.5399780273438</v>
+        <v>750</v>
       </c>
       <c r="D114">
-        <v>732.3900146484375</v>
+        <v>759.489990234375</v>
       </c>
       <c r="E114">
-        <v>732.3900146484375</v>
+        <v>759.489990234375</v>
       </c>
       <c r="F114">
-        <v>12777300</v>
+        <v>28204200</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>732.25</v>
+        <v>734.5599975585938</v>
       </c>
       <c r="B115">
-        <v>734</v>
+        <v>742</v>
       </c>
       <c r="C115">
-        <v>724.2000122070312</v>
+        <v>718.6199951171875</v>
       </c>
       <c r="D115">
-        <v>733.5700073242188</v>
+        <v>730.1699829101562</v>
       </c>
       <c r="E115">
-        <v>733.5700073242188</v>
+        <v>730.1699829101562</v>
       </c>
       <c r="F115">
-        <v>15246100</v>
+        <v>24757700</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>740</v>
+        <v>734.7899780273438</v>
       </c>
       <c r="B116">
-        <v>760.2000122070312</v>
+        <v>744.739990234375</v>
       </c>
       <c r="C116">
-        <v>739.260009765625</v>
+        <v>730.4400024414062</v>
       </c>
       <c r="D116">
-        <v>752.9199829101562</v>
+        <v>739.3800048828125</v>
       </c>
       <c r="E116">
-        <v>752.9199829101562</v>
+        <v>739.3800048828125</v>
       </c>
       <c r="F116">
-        <v>20039800</v>
+        <v>16330700</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>761.5800170898438</v>
+        <v>743.530029296875</v>
       </c>
       <c r="B117">
-        <v>764.4500122070312</v>
+        <v>753.6699829101562</v>
       </c>
       <c r="C117">
-        <v>740.77001953125</v>
+        <v>739.1199951171875</v>
       </c>
       <c r="D117">
-        <v>753.8699951171875</v>
+        <v>751.9400024414062</v>
       </c>
       <c r="E117">
-        <v>753.8699951171875</v>
+        <v>751.9400024414062</v>
       </c>
       <c r="F117">
-        <v>18793000</v>
+        <v>15126300</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>753.4099731445312</v>
+        <v>755</v>
       </c>
       <c r="B118">
-        <v>762.0999755859375</v>
+        <v>758.2000122070312</v>
       </c>
       <c r="C118">
-        <v>751.6300048828125</v>
+        <v>747.9199829101562</v>
       </c>
       <c r="D118">
-        <v>754.8599853515625</v>
+        <v>753.6400146484375</v>
       </c>
       <c r="E118">
-        <v>754.8599853515625</v>
+        <v>753.6400146484375</v>
       </c>
       <c r="F118">
-        <v>14077700</v>
+        <v>11947500</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>759.5999755859375</v>
+        <v>745.8900146484375</v>
       </c>
       <c r="B119">
-        <v>762.6099853515625</v>
+        <v>774.7999877929688</v>
       </c>
       <c r="C119">
-        <v>734.52001953125</v>
+        <v>744.5599975585938</v>
       </c>
       <c r="D119">
-        <v>736.27001953125</v>
+        <v>774.3900146484375</v>
       </c>
       <c r="E119">
-        <v>736.27001953125</v>
+        <v>774.3900146484375</v>
       </c>
       <c r="F119">
-        <v>15114300</v>
+        <v>21373000</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>740.2100219726562</v>
+        <v>773.1199951171875</v>
       </c>
       <c r="B120">
-        <v>744.780029296875</v>
+        <v>799</v>
       </c>
       <c r="C120">
-        <v>708.8499755859375</v>
+        <v>769.3099975585938</v>
       </c>
       <c r="D120">
-        <v>743</v>
+        <v>791.3599853515625</v>
       </c>
       <c r="E120">
-        <v>743</v>
+        <v>791.3599853515625</v>
       </c>
       <c r="F120">
-        <v>22952500</v>
+        <v>28070700</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>742.5700073242188</v>
+        <v>787.2000122070312</v>
       </c>
       <c r="B121">
-        <v>754.469970703125</v>
+        <v>795.6400146484375</v>
       </c>
       <c r="C121">
-        <v>736.4000244140625</v>
+        <v>766.1799926757812</v>
       </c>
       <c r="D121">
-        <v>744.489990234375</v>
+        <v>777.5599975585938</v>
       </c>
       <c r="E121">
-        <v>744.489990234375</v>
+        <v>777.5599975585938</v>
       </c>
       <c r="F121">
-        <v>18524900</v>
+        <v>25381400</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>745</v>
+        <v>779.7999877929688</v>
       </c>
       <c r="B122">
-        <v>756.8599853515625</v>
+        <v>793.5</v>
       </c>
       <c r="C122">
-        <v>738.3599853515625</v>
+        <v>770.6799926757812</v>
       </c>
       <c r="D122">
-        <v>755.8300170898438</v>
+        <v>781.3099975585938</v>
       </c>
       <c r="E122">
-        <v>755.8300170898438</v>
+        <v>781.3099975585938</v>
       </c>
       <c r="F122">
-        <v>15357700</v>
+        <v>20942900</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>752.8300170898438</v>
+        <v>781</v>
       </c>
       <c r="B123">
-        <v>758.9099731445312</v>
+        <v>789.1300048828125</v>
       </c>
       <c r="C123">
-        <v>747.6099853515625</v>
+        <v>775</v>
       </c>
       <c r="D123">
-        <v>756.989990234375</v>
+        <v>775.47998046875</v>
       </c>
       <c r="E123">
-        <v>756.989990234375</v>
+        <v>775.47998046875</v>
       </c>
       <c r="F123">
-        <v>13923400</v>
+        <v>17956000</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>757.1500244140625</v>
+        <v>778.4000244140625</v>
       </c>
       <c r="B124">
-        <v>761.0399780273438</v>
+        <v>780.780029296875</v>
       </c>
       <c r="C124">
-        <v>750</v>
+        <v>763.5900268554688</v>
       </c>
       <c r="D124">
-        <v>759.489990234375</v>
+        <v>775.219970703125</v>
       </c>
       <c r="E124">
-        <v>759.489990234375</v>
+        <v>775.219970703125</v>
       </c>
       <c r="F124">
-        <v>28186100</v>
+        <v>17031400</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>734.5599975585938</v>
+        <v>796.5</v>
       </c>
       <c r="B125">
-        <v>742</v>
+        <v>806.969970703125</v>
       </c>
       <c r="C125">
-        <v>718.6199951171875</v>
+        <v>776.1199951171875</v>
       </c>
       <c r="D125">
-        <v>730.1699829101562</v>
+        <v>781.530029296875</v>
       </c>
       <c r="E125">
-        <v>730.1699829101562</v>
+        <v>781.530029296875</v>
       </c>
       <c r="F125">
-        <v>24757700</v>
+        <v>30483300</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>734.7899780273438</v>
+        <v>784.7999877929688</v>
       </c>
       <c r="B126">
-        <v>744.739990234375</v>
+        <v>797.3099975585938</v>
       </c>
       <c r="C126">
-        <v>730.4400024414062</v>
+        <v>774.2000122070312</v>
       </c>
       <c r="D126">
-        <v>739.3800048828125</v>
+        <v>780.5900268554688</v>
       </c>
       <c r="E126">
-        <v>739.3800048828125</v>
+        <v>780.5900268554688</v>
       </c>
       <c r="F126">
-        <v>16330700</v>
+        <v>18432600</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>743.530029296875</v>
+        <v>776.2000122070312</v>
       </c>
       <c r="B127">
-        <v>753.6699829101562</v>
+        <v>786.6599731445312</v>
       </c>
       <c r="C127">
-        <v>739.1199951171875</v>
+        <v>773.219970703125</v>
       </c>
       <c r="D127">
-        <v>751.9400024414062</v>
+        <v>782.75</v>
       </c>
       <c r="E127">
-        <v>751.9400024414062</v>
+        <v>782.75</v>
       </c>
       <c r="F127">
-        <v>15126300</v>
+        <v>14632800</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>755</v>
+        <v>785.4600219726562</v>
       </c>
       <c r="B128">
-        <v>758.2000122070312</v>
+        <v>805</v>
       </c>
       <c r="C128">
-        <v>747.9199829101562</v>
+        <v>783.3800048828125</v>
       </c>
       <c r="D128">
-        <v>753.6400146484375</v>
+        <v>793.6099853515625</v>
       </c>
       <c r="E128">
-        <v>753.6400146484375</v>
+        <v>793.6099853515625</v>
       </c>
       <c r="F128">
-        <v>11947500</v>
+        <v>19195800</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>745.8900146484375</v>
+        <v>796.2100219726562</v>
       </c>
       <c r="B129">
-        <v>774.7999877929688</v>
+        <v>796.3800048828125</v>
       </c>
       <c r="C129">
-        <v>744.5599975585938</v>
+        <v>780.9099731445312</v>
       </c>
       <c r="D129">
-        <v>774.3900146484375</v>
+        <v>785.489990234375</v>
       </c>
       <c r="E129">
-        <v>774.3900146484375</v>
+        <v>785.489990234375</v>
       </c>
       <c r="F129">
-        <v>21336900</v>
+        <v>16711100</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/TSLA/TSLA_HighLow.xlsx
+++ b/Stocks/TSLA/TSLA_HighLow.xlsx
@@ -417,2562 +417,2562 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>677.77001953125</v>
+        <v>741.5</v>
       </c>
       <c r="B2">
-        <v>680.969970703125</v>
+        <v>753.77001953125</v>
       </c>
       <c r="C2">
-        <v>669.4299926757812</v>
+        <v>718.0399780273438</v>
       </c>
       <c r="D2">
-        <v>677.02001953125</v>
+        <v>719.6900024414062</v>
       </c>
       <c r="E2">
-        <v>677.02001953125</v>
+        <v>719.6900024414062</v>
       </c>
       <c r="F2">
-        <v>21437100</v>
+        <v>35590300</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>685.7000122070312</v>
+        <v>719.7999877929688</v>
       </c>
       <c r="B3">
-        <v>704.7999877929688</v>
+        <v>737.3599853515625</v>
       </c>
       <c r="C3">
-        <v>682.0900268554688</v>
+        <v>715.4600219726562</v>
       </c>
       <c r="D3">
-        <v>701.97998046875</v>
+        <v>729.4000244140625</v>
       </c>
       <c r="E3">
-        <v>701.97998046875</v>
+        <v>729.4000244140625</v>
       </c>
       <c r="F3">
-        <v>29135700</v>
+        <v>28370000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>712.7000122070312</v>
+        <v>741</v>
       </c>
       <c r="B4">
-        <v>763</v>
+        <v>749.2999877929688</v>
       </c>
       <c r="C4">
-        <v>710.6599731445312</v>
+        <v>732.6099853515625</v>
       </c>
       <c r="D4">
-        <v>762.3200073242188</v>
+        <v>738.2000122070312</v>
       </c>
       <c r="E4">
-        <v>762.3200073242188</v>
+        <v>738.2000122070312</v>
       </c>
       <c r="F4">
-        <v>44652800</v>
+        <v>31038500</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>770.7000122070312</v>
+        <v>717.9600219726562</v>
       </c>
       <c r="B5">
-        <v>780.7899780273438</v>
+        <v>724</v>
       </c>
       <c r="C5">
-        <v>728.030029296875</v>
+        <v>703.3499755859375</v>
       </c>
       <c r="D5">
-        <v>732.22998046875</v>
+        <v>704.739990234375</v>
       </c>
       <c r="E5">
-        <v>732.22998046875</v>
+        <v>704.739990234375</v>
       </c>
       <c r="F5">
-        <v>49017400</v>
+        <v>29437000</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>743.0999755859375</v>
+        <v>696.4099731445312</v>
       </c>
       <c r="B6">
-        <v>743.6900024414062</v>
+        <v>708.5</v>
       </c>
       <c r="C6">
-        <v>721.3099975585938</v>
+        <v>693.5999755859375</v>
       </c>
       <c r="D6">
-        <v>738.8499755859375</v>
+        <v>694.4000244140625</v>
       </c>
       <c r="E6">
-        <v>738.8499755859375</v>
+        <v>694.4000244140625</v>
       </c>
       <c r="F6">
-        <v>27848900</v>
+        <v>22271000</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>728.6500244140625</v>
+        <v>699.510009765625</v>
       </c>
       <c r="B7">
-        <v>749.4099731445312</v>
+        <v>702.25</v>
       </c>
       <c r="C7">
-        <v>724.5999755859375</v>
+        <v>668.5</v>
       </c>
       <c r="D7">
-        <v>739.780029296875</v>
+        <v>677</v>
       </c>
       <c r="E7">
-        <v>739.780029296875</v>
+        <v>677</v>
       </c>
       <c r="F7">
-        <v>27979500</v>
+        <v>28845400</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>719.5999755859375</v>
+        <v>667.5900268554688</v>
       </c>
       <c r="B8">
-        <v>725.4000244140625</v>
+        <v>715.469970703125</v>
       </c>
       <c r="C8">
-        <v>691.7999877929688</v>
+        <v>666.1400146484375</v>
       </c>
       <c r="D8">
-        <v>714.6300048828125</v>
+        <v>709.4400024414062</v>
       </c>
       <c r="E8">
-        <v>714.6300048828125</v>
+        <v>709.4400024414062</v>
       </c>
       <c r="F8">
-        <v>39686200</v>
+        <v>40758700</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>717.4199829101562</v>
+        <v>703.7999877929688</v>
       </c>
       <c r="B9">
-        <v>737.25</v>
+        <v>706</v>
       </c>
       <c r="C9">
-        <v>710.6900024414062</v>
+        <v>680.5</v>
       </c>
       <c r="D9">
-        <v>718.989990234375</v>
+        <v>684.9000244140625</v>
       </c>
       <c r="E9">
-        <v>718.989990234375</v>
+        <v>684.9000244140625</v>
       </c>
       <c r="F9">
-        <v>35609000</v>
+        <v>27043100</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>704.77001953125</v>
+        <v>678.9400024414062</v>
       </c>
       <c r="B10">
-        <v>744.8400268554688</v>
+        <v>683.4500122070312</v>
       </c>
       <c r="C10">
-        <v>698</v>
+        <v>657.7000122070312</v>
       </c>
       <c r="D10">
-        <v>744.1199951171875</v>
+        <v>673.5999755859375</v>
       </c>
       <c r="E10">
-        <v>744.1199951171875</v>
+        <v>673.5999755859375</v>
       </c>
       <c r="F10">
-        <v>31215500</v>
+        <v>29739300</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>741.5</v>
+        <v>681.0599975585938</v>
       </c>
       <c r="B11">
-        <v>753.77001953125</v>
+        <v>685.2999877929688</v>
       </c>
       <c r="C11">
-        <v>718.0399780273438</v>
+        <v>667.3400268554688</v>
       </c>
       <c r="D11">
-        <v>719.6900024414062</v>
+        <v>670.9400024414062</v>
       </c>
       <c r="E11">
-        <v>719.6900024414062</v>
+        <v>670.9400024414062</v>
       </c>
       <c r="F11">
-        <v>35590300</v>
+        <v>21901900</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>719.7999877929688</v>
+        <v>680.760009765625</v>
       </c>
       <c r="B12">
-        <v>737.3599853515625</v>
+        <v>681.02001953125</v>
       </c>
       <c r="C12">
-        <v>715.4600219726562</v>
+        <v>650</v>
       </c>
       <c r="D12">
-        <v>729.4000244140625</v>
+        <v>663.5399780273438</v>
       </c>
       <c r="E12">
-        <v>729.4000244140625</v>
+        <v>663.5399780273438</v>
       </c>
       <c r="F12">
-        <v>28370000</v>
+        <v>27784600</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>741</v>
+        <v>665.7999877929688</v>
       </c>
       <c r="B13">
-        <v>749.2999877929688</v>
+        <v>690</v>
       </c>
       <c r="C13">
-        <v>732.6099853515625</v>
+        <v>660.219970703125</v>
       </c>
       <c r="D13">
-        <v>738.2000122070312</v>
+        <v>672.3699951171875</v>
       </c>
       <c r="E13">
-        <v>738.2000122070312</v>
+        <v>672.3699951171875</v>
       </c>
       <c r="F13">
-        <v>31038500</v>
+        <v>23469200</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>717.9600219726562</v>
+        <v>664.9000244140625</v>
       </c>
       <c r="B14">
-        <v>724</v>
+        <v>665.0499877929688</v>
       </c>
       <c r="C14">
-        <v>703.3499755859375</v>
+        <v>627.6099853515625</v>
       </c>
       <c r="D14">
-        <v>704.739990234375</v>
+        <v>629.0399780273438</v>
       </c>
       <c r="E14">
-        <v>704.739990234375</v>
+        <v>629.0399780273438</v>
       </c>
       <c r="F14">
-        <v>29437000</v>
+        <v>31392400</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>696.4099731445312</v>
+        <v>599.239990234375</v>
       </c>
       <c r="B15">
-        <v>708.5</v>
+        <v>627.0999755859375</v>
       </c>
       <c r="C15">
-        <v>693.5999755859375</v>
+        <v>595.5999755859375</v>
       </c>
       <c r="D15">
-        <v>694.4000244140625</v>
+        <v>617.2000122070312</v>
       </c>
       <c r="E15">
-        <v>694.4000244140625</v>
+        <v>617.2000122070312</v>
       </c>
       <c r="F15">
-        <v>22271000</v>
+        <v>46503900</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>699.510009765625</v>
+        <v>602.489990234375</v>
       </c>
       <c r="B16">
-        <v>702.25</v>
+        <v>620.4099731445312</v>
       </c>
       <c r="C16">
-        <v>668.5</v>
+        <v>586.77001953125</v>
       </c>
       <c r="D16">
-        <v>677</v>
+        <v>589.8900146484375</v>
       </c>
       <c r="E16">
-        <v>677</v>
+        <v>589.8900146484375</v>
       </c>
       <c r="F16">
-        <v>28845400</v>
+        <v>33823600</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>667.5900268554688</v>
+        <v>601.5399780273438</v>
       </c>
       <c r="B17">
-        <v>715.469970703125</v>
+        <v>606.4600219726562</v>
       </c>
       <c r="C17">
-        <v>666.1400146484375</v>
+        <v>559.6500244140625</v>
       </c>
       <c r="D17">
-        <v>709.4400024414062</v>
+        <v>571.6900024414062</v>
       </c>
       <c r="E17">
-        <v>709.4400024414062</v>
+        <v>571.6900024414062</v>
       </c>
       <c r="F17">
-        <v>40758700</v>
+        <v>44184900</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>703.7999877929688</v>
+        <v>583.4099731445312</v>
       </c>
       <c r="B18">
-        <v>706</v>
+        <v>592.8699951171875</v>
       </c>
       <c r="C18">
-        <v>680.5</v>
+        <v>570.4600219726562</v>
       </c>
       <c r="D18">
-        <v>684.9000244140625</v>
+        <v>589.739990234375</v>
       </c>
       <c r="E18">
-        <v>684.9000244140625</v>
+        <v>589.739990234375</v>
       </c>
       <c r="F18">
-        <v>27043100</v>
+        <v>33370900</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>678.9400024414062</v>
+        <v>575.5499877929688</v>
       </c>
       <c r="B19">
-        <v>683.4500122070312</v>
+        <v>589.72998046875</v>
       </c>
       <c r="C19">
-        <v>657.7000122070312</v>
+        <v>561.2000122070312</v>
       </c>
       <c r="D19">
-        <v>673.5999755859375</v>
+        <v>576.8300170898438</v>
       </c>
       <c r="E19">
-        <v>673.5999755859375</v>
+        <v>576.8300170898438</v>
       </c>
       <c r="F19">
-        <v>29739300</v>
+        <v>32390400</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>681.0599975585938</v>
+        <v>568</v>
       </c>
       <c r="B20">
-        <v>685.2999877929688</v>
+        <v>596.25</v>
       </c>
       <c r="C20">
-        <v>667.3400268554688</v>
+        <v>563.3800048828125</v>
       </c>
       <c r="D20">
-        <v>670.9400024414062</v>
+        <v>577.8699951171875</v>
       </c>
       <c r="E20">
-        <v>670.9400024414062</v>
+        <v>577.8699951171875</v>
       </c>
       <c r="F20">
-        <v>21901900</v>
+        <v>36830600</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>680.760009765625</v>
+        <v>552.5499877929688</v>
       </c>
       <c r="B21">
-        <v>681.02001953125</v>
+        <v>566.2100219726562</v>
       </c>
       <c r="C21">
-        <v>650</v>
+        <v>546.97998046875</v>
       </c>
       <c r="D21">
-        <v>663.5399780273438</v>
+        <v>563.4600219726562</v>
       </c>
       <c r="E21">
-        <v>663.5399780273438</v>
+        <v>563.4600219726562</v>
       </c>
       <c r="F21">
-        <v>27784600</v>
+        <v>39578400</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>665.7999877929688</v>
+        <v>575</v>
       </c>
       <c r="B22">
-        <v>690</v>
+        <v>588.8499755859375</v>
       </c>
       <c r="C22">
-        <v>660.219970703125</v>
+        <v>571.0700073242188</v>
       </c>
       <c r="D22">
-        <v>672.3699951171875</v>
+        <v>586.780029296875</v>
       </c>
       <c r="E22">
-        <v>672.3699951171875</v>
+        <v>586.780029296875</v>
       </c>
       <c r="F22">
-        <v>23469200</v>
+        <v>30821100</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>664.9000244140625</v>
+        <v>596.1099853515625</v>
       </c>
       <c r="B23">
-        <v>665.0499877929688</v>
+        <v>596.6799926757812</v>
       </c>
       <c r="C23">
-        <v>627.6099853515625</v>
+        <v>580</v>
       </c>
       <c r="D23">
-        <v>629.0399780273438</v>
+        <v>580.8800048828125</v>
       </c>
       <c r="E23">
-        <v>629.0399780273438</v>
+        <v>580.8800048828125</v>
       </c>
       <c r="F23">
-        <v>31392400</v>
+        <v>26030600</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>599.239990234375</v>
+        <v>581.5999755859375</v>
       </c>
       <c r="B24">
-        <v>627.0999755859375</v>
+        <v>614.47998046875</v>
       </c>
       <c r="C24">
-        <v>595.5999755859375</v>
+        <v>573.6500244140625</v>
       </c>
       <c r="D24">
-        <v>617.2000122070312</v>
+        <v>606.4400024414062</v>
       </c>
       <c r="E24">
-        <v>617.2000122070312</v>
+        <v>606.4400024414062</v>
       </c>
       <c r="F24">
-        <v>46503900</v>
+        <v>34558100</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>602.489990234375</v>
+        <v>607.3099975585938</v>
       </c>
       <c r="B25">
-        <v>620.4099731445312</v>
+        <v>613.989990234375</v>
       </c>
       <c r="C25">
-        <v>586.77001953125</v>
+        <v>595.7100219726562</v>
       </c>
       <c r="D25">
-        <v>589.8900146484375</v>
+        <v>604.6900024414062</v>
       </c>
       <c r="E25">
-        <v>589.8900146484375</v>
+        <v>604.6900024414062</v>
       </c>
       <c r="F25">
-        <v>33823600</v>
+        <v>28005900</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>601.5399780273438</v>
+        <v>607.5599975585938</v>
       </c>
       <c r="B26">
-        <v>606.4600219726562</v>
+        <v>626.1699829101562</v>
       </c>
       <c r="C26">
-        <v>559.6500244140625</v>
+        <v>601.5</v>
       </c>
       <c r="D26">
-        <v>571.6900024414062</v>
+        <v>619.1300048828125</v>
       </c>
       <c r="E26">
-        <v>571.6900024414062</v>
+        <v>619.1300048828125</v>
       </c>
       <c r="F26">
-        <v>44184900</v>
+        <v>28639300</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>583.4099731445312</v>
+        <v>620.239990234375</v>
       </c>
       <c r="B27">
-        <v>592.8699951171875</v>
+        <v>631.1300048828125</v>
       </c>
       <c r="C27">
-        <v>570.4600219726562</v>
+        <v>616.2100219726562</v>
       </c>
       <c r="D27">
-        <v>589.739990234375</v>
+        <v>630.8499755859375</v>
       </c>
       <c r="E27">
-        <v>589.739990234375</v>
+        <v>630.8499755859375</v>
       </c>
       <c r="F27">
-        <v>33370900</v>
+        <v>26370600</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>575.5499877929688</v>
+        <v>628.5</v>
       </c>
       <c r="B28">
-        <v>589.72998046875</v>
+        <v>635.5900268554688</v>
       </c>
       <c r="C28">
-        <v>561.2000122070312</v>
+        <v>622.3800048828125</v>
       </c>
       <c r="D28">
-        <v>576.8300170898438</v>
+        <v>625.219970703125</v>
       </c>
       <c r="E28">
-        <v>576.8300170898438</v>
+        <v>625.219970703125</v>
       </c>
       <c r="F28">
-        <v>32390400</v>
+        <v>22737000</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>568</v>
+        <v>627.7999877929688</v>
       </c>
       <c r="B29">
-        <v>596.25</v>
+        <v>633.7999877929688</v>
       </c>
       <c r="C29">
-        <v>563.3800048828125</v>
+        <v>620.5499877929688</v>
       </c>
       <c r="D29">
-        <v>577.8699951171875</v>
+        <v>623.9000244140625</v>
       </c>
       <c r="E29">
-        <v>577.8699951171875</v>
+        <v>623.9000244140625</v>
       </c>
       <c r="F29">
-        <v>36830600</v>
+        <v>18084900</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>552.5499877929688</v>
+        <v>620.1300048828125</v>
       </c>
       <c r="B30">
-        <v>566.2100219726562</v>
+        <v>623.3599853515625</v>
       </c>
       <c r="C30">
-        <v>546.97998046875</v>
+        <v>599.1400146484375</v>
       </c>
       <c r="D30">
-        <v>563.4600219726562</v>
+        <v>605.1199951171875</v>
       </c>
       <c r="E30">
-        <v>563.4600219726562</v>
+        <v>605.1199951171875</v>
       </c>
       <c r="F30">
-        <v>39578400</v>
+        <v>23302800</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>575</v>
+        <v>601.7999877929688</v>
       </c>
       <c r="B31">
-        <v>588.8499755859375</v>
+        <v>604.5499877929688</v>
       </c>
       <c r="C31">
-        <v>571.0700073242188</v>
+        <v>571.219970703125</v>
       </c>
       <c r="D31">
-        <v>586.780029296875</v>
+        <v>572.8400268554688</v>
       </c>
       <c r="E31">
-        <v>586.780029296875</v>
+        <v>572.8400268554688</v>
       </c>
       <c r="F31">
-        <v>30821100</v>
+        <v>30111900</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>596.1099853515625</v>
+        <v>579.7100219726562</v>
       </c>
       <c r="B32">
-        <v>596.6799926757812</v>
+        <v>600.6099853515625</v>
       </c>
       <c r="C32">
-        <v>580</v>
+        <v>577.2000122070312</v>
       </c>
       <c r="D32">
-        <v>580.8800048828125</v>
+        <v>599.0499877929688</v>
       </c>
       <c r="E32">
-        <v>580.8800048828125</v>
+        <v>599.0499877929688</v>
       </c>
       <c r="F32">
-        <v>26030600</v>
+        <v>24036900</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>581.5999755859375</v>
+        <v>591.8300170898438</v>
       </c>
       <c r="B33">
-        <v>614.47998046875</v>
+        <v>610</v>
       </c>
       <c r="C33">
-        <v>573.6500244140625</v>
+        <v>582.8800048828125</v>
       </c>
       <c r="D33">
-        <v>606.4400024414062</v>
+        <v>605.1300048828125</v>
       </c>
       <c r="E33">
-        <v>606.4400024414062</v>
+        <v>605.1300048828125</v>
       </c>
       <c r="F33">
-        <v>34558100</v>
+        <v>22543700</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>607.3099975585938</v>
+        <v>623.010009765625</v>
       </c>
       <c r="B34">
-        <v>613.989990234375</v>
+        <v>623.0900268554688</v>
       </c>
       <c r="C34">
-        <v>595.7100219726562</v>
+        <v>595.5</v>
       </c>
       <c r="D34">
-        <v>604.6900024414062</v>
+        <v>603.5900268554688</v>
       </c>
       <c r="E34">
-        <v>604.6900024414062</v>
+        <v>603.5900268554688</v>
       </c>
       <c r="F34">
-        <v>28005900</v>
+        <v>26053400</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>607.5599975585938</v>
+        <v>602.1699829101562</v>
       </c>
       <c r="B35">
-        <v>626.1699829101562</v>
+        <v>611.7899780273438</v>
       </c>
       <c r="C35">
-        <v>601.5</v>
+        <v>597.6300048828125</v>
       </c>
       <c r="D35">
-        <v>619.1300048828125</v>
+        <v>598.780029296875</v>
       </c>
       <c r="E35">
-        <v>619.1300048828125</v>
+        <v>598.780029296875</v>
       </c>
       <c r="F35">
-        <v>28639300</v>
+        <v>16584600</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>620.239990234375</v>
+        <v>603.8800048828125</v>
       </c>
       <c r="B36">
-        <v>631.1300048828125</v>
+        <v>616.5900268554688</v>
       </c>
       <c r="C36">
-        <v>616.2100219726562</v>
+        <v>600.5</v>
       </c>
       <c r="D36">
-        <v>630.8499755859375</v>
+        <v>610.1199951171875</v>
       </c>
       <c r="E36">
-        <v>630.8499755859375</v>
+        <v>610.1199951171875</v>
       </c>
       <c r="F36">
-        <v>26370600</v>
+        <v>23919600</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>628.5</v>
+        <v>610.22998046875</v>
       </c>
       <c r="B37">
-        <v>635.5900268554688</v>
+        <v>612.5599975585938</v>
       </c>
       <c r="C37">
-        <v>622.3800048828125</v>
+        <v>601.52001953125</v>
       </c>
       <c r="D37">
-        <v>625.219970703125</v>
+        <v>609.8900146484375</v>
       </c>
       <c r="E37">
-        <v>625.219970703125</v>
+        <v>609.8900146484375</v>
       </c>
       <c r="F37">
-        <v>22737000</v>
+        <v>16205300</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>627.7999877929688</v>
+        <v>612.22998046875</v>
       </c>
       <c r="B38">
-        <v>633.7999877929688</v>
+        <v>625.489990234375</v>
       </c>
       <c r="C38">
-        <v>620.5499877929688</v>
+        <v>609.1799926757812</v>
       </c>
       <c r="D38">
-        <v>623.9000244140625</v>
+        <v>617.6900024414062</v>
       </c>
       <c r="E38">
-        <v>623.9000244140625</v>
+        <v>617.6900024414062</v>
       </c>
       <c r="F38">
-        <v>18084900</v>
+        <v>20424000</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>620.1300048828125</v>
+        <v>616.6900024414062</v>
       </c>
       <c r="B39">
-        <v>623.3599853515625</v>
+        <v>616.7899780273438</v>
       </c>
       <c r="C39">
-        <v>599.1400146484375</v>
+        <v>598.22998046875</v>
       </c>
       <c r="D39">
-        <v>605.1199951171875</v>
+        <v>599.3599853515625</v>
       </c>
       <c r="E39">
-        <v>605.1199951171875</v>
+        <v>599.3599853515625</v>
       </c>
       <c r="F39">
-        <v>23302800</v>
+        <v>17764100</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>601.7999877929688</v>
+        <v>597.5399780273438</v>
       </c>
       <c r="B40">
-        <v>604.5499877929688</v>
+        <v>608.5</v>
       </c>
       <c r="C40">
-        <v>571.219970703125</v>
+        <v>593.5</v>
       </c>
       <c r="D40">
-        <v>572.8400268554688</v>
+        <v>604.8699951171875</v>
       </c>
       <c r="E40">
-        <v>572.8400268554688</v>
+        <v>604.8699951171875</v>
       </c>
       <c r="F40">
-        <v>30111900</v>
+        <v>22144100</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>579.7100219726562</v>
+        <v>601.8900146484375</v>
       </c>
       <c r="B41">
-        <v>600.6099853515625</v>
+        <v>621.469970703125</v>
       </c>
       <c r="C41">
-        <v>577.2000122070312</v>
+        <v>601.3400268554688</v>
       </c>
       <c r="D41">
-        <v>599.0499877929688</v>
+        <v>616.5999755859375</v>
       </c>
       <c r="E41">
-        <v>599.0499877929688</v>
+        <v>616.5999755859375</v>
       </c>
       <c r="F41">
-        <v>24036900</v>
+        <v>22701400</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>591.8300170898438</v>
+        <v>613.3699951171875</v>
       </c>
       <c r="B42">
-        <v>610</v>
+        <v>628.3499755859375</v>
       </c>
       <c r="C42">
-        <v>582.8800048828125</v>
+        <v>611.7999877929688</v>
       </c>
       <c r="D42">
-        <v>605.1300048828125</v>
+        <v>623.3099975585938</v>
       </c>
       <c r="E42">
-        <v>605.1300048828125</v>
+        <v>623.3099975585938</v>
       </c>
       <c r="F42">
-        <v>22543700</v>
+        <v>24560900</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>623.010009765625</v>
+        <v>624.47998046875</v>
       </c>
       <c r="B43">
-        <v>623.0900268554688</v>
+        <v>631.3900146484375</v>
       </c>
       <c r="C43">
-        <v>595.5</v>
+        <v>608.8800048828125</v>
       </c>
       <c r="D43">
-        <v>603.5900268554688</v>
+        <v>620.8300170898438</v>
       </c>
       <c r="E43">
-        <v>603.5900268554688</v>
+        <v>620.8300170898438</v>
       </c>
       <c r="F43">
-        <v>26053400</v>
+        <v>24812700</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>602.1699829101562</v>
+        <v>618.25</v>
       </c>
       <c r="B44">
-        <v>611.7899780273438</v>
+        <v>628.5700073242188</v>
       </c>
       <c r="C44">
-        <v>597.6300048828125</v>
+        <v>615.5</v>
       </c>
       <c r="D44">
-        <v>598.780029296875</v>
+        <v>623.7100219726562</v>
       </c>
       <c r="E44">
-        <v>598.780029296875</v>
+        <v>623.7100219726562</v>
       </c>
       <c r="F44">
-        <v>16584600</v>
+        <v>19158900</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>603.8800048828125</v>
+        <v>632</v>
       </c>
       <c r="B45">
-        <v>616.5900268554688</v>
+        <v>657.2000122070312</v>
       </c>
       <c r="C45">
-        <v>600.5</v>
+        <v>630.0399780273438</v>
       </c>
       <c r="D45">
-        <v>610.1199951171875</v>
+        <v>656.5700073242188</v>
       </c>
       <c r="E45">
-        <v>610.1199951171875</v>
+        <v>656.5700073242188</v>
       </c>
       <c r="F45">
-        <v>23919600</v>
+        <v>31099200</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>610.22998046875</v>
+        <v>674.989990234375</v>
       </c>
       <c r="B46">
-        <v>612.5599975585938</v>
+        <v>697.6199951171875</v>
       </c>
       <c r="C46">
-        <v>601.52001953125</v>
+        <v>667.6099853515625</v>
       </c>
       <c r="D46">
-        <v>609.8900146484375</v>
+        <v>679.8200073242188</v>
       </c>
       <c r="E46">
-        <v>609.8900146484375</v>
+        <v>679.8200073242188</v>
       </c>
       <c r="F46">
-        <v>16205300</v>
+        <v>45982400</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>612.22998046875</v>
+        <v>689.5800170898438</v>
       </c>
       <c r="B47">
-        <v>625.489990234375</v>
+        <v>693.8099975585938</v>
       </c>
       <c r="C47">
-        <v>609.1799926757812</v>
+        <v>668.7000122070312</v>
       </c>
       <c r="D47">
-        <v>617.6900024414062</v>
+        <v>671.8699951171875</v>
       </c>
       <c r="E47">
-        <v>617.6900024414062</v>
+        <v>671.8699951171875</v>
       </c>
       <c r="F47">
-        <v>20424000</v>
+        <v>32496700</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>616.6900024414062</v>
+        <v>671.6400146484375</v>
       </c>
       <c r="B48">
-        <v>616.7899780273438</v>
+        <v>694.7000122070312</v>
       </c>
       <c r="C48">
-        <v>598.22998046875</v>
+        <v>670.3200073242188</v>
       </c>
       <c r="D48">
-        <v>599.3599853515625</v>
+        <v>688.719970703125</v>
       </c>
       <c r="E48">
-        <v>599.3599853515625</v>
+        <v>688.719970703125</v>
       </c>
       <c r="F48">
-        <v>17764100</v>
+        <v>21628200</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>597.5399780273438</v>
+        <v>684.6500244140625</v>
       </c>
       <c r="B49">
-        <v>608.5</v>
+        <v>687.510009765625</v>
       </c>
       <c r="C49">
-        <v>593.5</v>
+        <v>675.8900146484375</v>
       </c>
       <c r="D49">
-        <v>604.8699951171875</v>
+        <v>680.760009765625</v>
       </c>
       <c r="E49">
-        <v>604.8699951171875</v>
+        <v>680.760009765625</v>
       </c>
       <c r="F49">
-        <v>22144100</v>
+        <v>17381300</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>601.8900146484375</v>
+        <v>679.77001953125</v>
       </c>
       <c r="B50">
-        <v>621.469970703125</v>
+        <v>692.8099975585938</v>
       </c>
       <c r="C50">
-        <v>601.3400268554688</v>
+        <v>678.1400146484375</v>
       </c>
       <c r="D50">
-        <v>616.5999755859375</v>
+        <v>679.7000122070312</v>
       </c>
       <c r="E50">
-        <v>616.5999755859375</v>
+        <v>679.7000122070312</v>
       </c>
       <c r="F50">
-        <v>22701400</v>
+        <v>18924900</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>613.3699951171875</v>
+        <v>683.9199829101562</v>
       </c>
       <c r="B51">
-        <v>628.3499755859375</v>
+        <v>687.989990234375</v>
       </c>
       <c r="C51">
-        <v>611.7999877929688</v>
+        <v>672.7999877929688</v>
       </c>
       <c r="D51">
-        <v>623.3099975585938</v>
+        <v>677.9199829101562</v>
       </c>
       <c r="E51">
-        <v>623.3099975585938</v>
+        <v>677.9199829101562</v>
       </c>
       <c r="F51">
-        <v>24560900</v>
+        <v>18634500</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>624.47998046875</v>
+        <v>678.97998046875</v>
       </c>
       <c r="B52">
-        <v>631.3900146484375</v>
+        <v>700</v>
       </c>
       <c r="C52">
-        <v>608.8800048828125</v>
+        <v>673.260009765625</v>
       </c>
       <c r="D52">
-        <v>620.8300170898438</v>
+        <v>678.9000244140625</v>
       </c>
       <c r="E52">
-        <v>620.8300170898438</v>
+        <v>678.9000244140625</v>
       </c>
       <c r="F52">
-        <v>24812700</v>
+        <v>27054500</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>618.25</v>
+        <v>681.7100219726562</v>
       </c>
       <c r="B53">
-        <v>628.5700073242188</v>
+        <v>684</v>
       </c>
       <c r="C53">
-        <v>615.5</v>
+        <v>651.4000244140625</v>
       </c>
       <c r="D53">
-        <v>623.7100219726562</v>
+        <v>659.5800170898438</v>
       </c>
       <c r="E53">
-        <v>623.7100219726562</v>
+        <v>659.5800170898438</v>
       </c>
       <c r="F53">
-        <v>19158900</v>
+        <v>23284500</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>632</v>
+        <v>664.27001953125</v>
       </c>
       <c r="B54">
-        <v>657.2000122070312</v>
+        <v>665.7000122070312</v>
       </c>
       <c r="C54">
-        <v>630.0399780273438</v>
+        <v>638.3200073242188</v>
       </c>
       <c r="D54">
-        <v>656.5700073242188</v>
+        <v>644.6500244140625</v>
       </c>
       <c r="E54">
-        <v>656.5700073242188</v>
+        <v>644.6500244140625</v>
       </c>
       <c r="F54">
-        <v>31099200</v>
+        <v>18792000</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>674.989990234375</v>
+        <v>628.3699951171875</v>
       </c>
       <c r="B55">
-        <v>697.6199951171875</v>
+        <v>654.4299926757812</v>
       </c>
       <c r="C55">
-        <v>667.6099853515625</v>
+        <v>620.4600219726562</v>
       </c>
       <c r="D55">
-        <v>679.8200073242188</v>
+        <v>652.8099975585938</v>
       </c>
       <c r="E55">
-        <v>679.8200073242188</v>
+        <v>652.8099975585938</v>
       </c>
       <c r="F55">
-        <v>45982400</v>
+        <v>22773300</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>689.5800170898438</v>
+        <v>653.1799926757812</v>
       </c>
       <c r="B56">
-        <v>693.8099975585938</v>
+        <v>658.9099731445312</v>
       </c>
       <c r="C56">
-        <v>668.7000122070312</v>
+        <v>644.6900024414062</v>
       </c>
       <c r="D56">
-        <v>671.8699951171875</v>
+        <v>656.9500122070312</v>
       </c>
       <c r="E56">
-        <v>671.8699951171875</v>
+        <v>656.9500122070312</v>
       </c>
       <c r="F56">
-        <v>32496700</v>
+        <v>18140500</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>671.6400146484375</v>
+        <v>662.2000122070312</v>
       </c>
       <c r="B57">
-        <v>694.7000122070312</v>
+        <v>687.239990234375</v>
       </c>
       <c r="C57">
-        <v>670.3200073242188</v>
+        <v>662.1599731445312</v>
       </c>
       <c r="D57">
-        <v>688.719970703125</v>
+        <v>685.7000122070312</v>
       </c>
       <c r="E57">
-        <v>688.719970703125</v>
+        <v>685.7000122070312</v>
       </c>
       <c r="F57">
-        <v>21628200</v>
+        <v>25927000</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>684.6500244140625</v>
+        <v>686.3200073242188</v>
       </c>
       <c r="B58">
-        <v>687.510009765625</v>
+        <v>693.280029296875</v>
       </c>
       <c r="C58">
-        <v>675.8900146484375</v>
+        <v>666.2999877929688</v>
       </c>
       <c r="D58">
-        <v>680.760009765625</v>
+        <v>668.5399780273438</v>
       </c>
       <c r="E58">
-        <v>680.760009765625</v>
+        <v>668.5399780273438</v>
       </c>
       <c r="F58">
-        <v>17381300</v>
+        <v>20966100</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>679.77001953125</v>
+        <v>670.75</v>
       </c>
       <c r="B59">
-        <v>692.8099975585938</v>
+        <v>678.6099853515625</v>
       </c>
       <c r="C59">
-        <v>678.1400146484375</v>
+        <v>652.8400268554688</v>
       </c>
       <c r="D59">
-        <v>679.7000122070312</v>
+        <v>653.3800048828125</v>
       </c>
       <c r="E59">
-        <v>679.7000122070312</v>
+        <v>653.3800048828125</v>
       </c>
       <c r="F59">
-        <v>18924900</v>
+        <v>21641200</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>683.9199829101562</v>
+        <v>658.3900146484375</v>
       </c>
       <c r="B60">
-        <v>687.989990234375</v>
+        <v>666.1400146484375</v>
       </c>
       <c r="C60">
-        <v>672.7999877929688</v>
+        <v>637.8800048828125</v>
       </c>
       <c r="D60">
-        <v>677.9199829101562</v>
+        <v>650.5999755859375</v>
       </c>
       <c r="E60">
-        <v>677.9199829101562</v>
+        <v>650.5999755859375</v>
       </c>
       <c r="F60">
-        <v>18634500</v>
+        <v>20209600</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>678.97998046875</v>
+        <v>654.6799926757812</v>
       </c>
       <c r="B61">
-        <v>700</v>
+        <v>656.7000122070312</v>
       </c>
       <c r="C61">
-        <v>673.260009765625</v>
+        <v>642.2000122070312</v>
       </c>
       <c r="D61">
-        <v>678.9000244140625</v>
+        <v>644.219970703125</v>
       </c>
       <c r="E61">
-        <v>678.9000244140625</v>
+        <v>644.219970703125</v>
       </c>
       <c r="F61">
-        <v>27054500</v>
+        <v>16371000</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>681.7100219726562</v>
+        <v>629.8900146484375</v>
       </c>
       <c r="B62">
-        <v>684</v>
+        <v>647.2000122070312</v>
       </c>
       <c r="C62">
-        <v>651.4000244140625</v>
+        <v>621.2899780273438</v>
       </c>
       <c r="D62">
-        <v>659.5800170898438</v>
+        <v>646.219970703125</v>
       </c>
       <c r="E62">
-        <v>659.5800170898438</v>
+        <v>646.219970703125</v>
       </c>
       <c r="F62">
-        <v>23284500</v>
+        <v>21297100</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>664.27001953125</v>
+        <v>651.989990234375</v>
       </c>
       <c r="B63">
-        <v>665.7000122070312</v>
+        <v>662.3900146484375</v>
       </c>
       <c r="C63">
-        <v>638.3200073242188</v>
+        <v>640.5</v>
       </c>
       <c r="D63">
-        <v>644.6500244140625</v>
+        <v>660.5</v>
       </c>
       <c r="E63">
-        <v>644.6500244140625</v>
+        <v>660.5</v>
       </c>
       <c r="F63">
-        <v>18792000</v>
+        <v>15487100</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>628.3699951171875</v>
+        <v>659.6099853515625</v>
       </c>
       <c r="B64">
-        <v>654.4299926757812</v>
+        <v>664.8599853515625</v>
       </c>
       <c r="C64">
-        <v>620.4600219726562</v>
+        <v>650.2899780273438</v>
       </c>
       <c r="D64">
-        <v>652.8099975585938</v>
+        <v>655.2899780273438</v>
       </c>
       <c r="E64">
-        <v>652.8099975585938</v>
+        <v>655.2899780273438</v>
       </c>
       <c r="F64">
-        <v>22773300</v>
+        <v>13953300</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>653.1799926757812</v>
+        <v>656.4400024414062</v>
       </c>
       <c r="B65">
-        <v>658.9099731445312</v>
+        <v>662.1699829101562</v>
       </c>
       <c r="C65">
-        <v>644.6900024414062</v>
+        <v>644.5999755859375</v>
       </c>
       <c r="D65">
-        <v>656.9500122070312</v>
+        <v>649.260009765625</v>
       </c>
       <c r="E65">
-        <v>656.9500122070312</v>
+        <v>649.260009765625</v>
       </c>
       <c r="F65">
-        <v>18140500</v>
+        <v>15105700</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>662.2000122070312</v>
+        <v>646.3599853515625</v>
       </c>
       <c r="B66">
-        <v>687.239990234375</v>
+        <v>648.7999877929688</v>
       </c>
       <c r="C66">
-        <v>662.1599731445312</v>
+        <v>637.2999877929688</v>
       </c>
       <c r="D66">
-        <v>685.7000122070312</v>
+        <v>643.3800048828125</v>
       </c>
       <c r="E66">
-        <v>685.7000122070312</v>
+        <v>643.3800048828125</v>
       </c>
       <c r="F66">
-        <v>25927000</v>
+        <v>14604900</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>686.3200073242188</v>
+        <v>650.969970703125</v>
       </c>
       <c r="B67">
-        <v>693.280029296875</v>
+        <v>668.2000122070312</v>
       </c>
       <c r="C67">
-        <v>666.2999877929688</v>
+        <v>647.1099853515625</v>
       </c>
       <c r="D67">
-        <v>668.5399780273438</v>
+        <v>657.6199951171875</v>
       </c>
       <c r="E67">
-        <v>668.5399780273438</v>
+        <v>657.6199951171875</v>
       </c>
       <c r="F67">
-        <v>20966100</v>
+        <v>25336600</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>670.75</v>
+        <v>663.4000244140625</v>
       </c>
       <c r="B68">
-        <v>678.6099853515625</v>
+        <v>666.5</v>
       </c>
       <c r="C68">
-        <v>652.8400268554688</v>
+        <v>627.239990234375</v>
       </c>
       <c r="D68">
-        <v>653.3800048828125</v>
+        <v>644.780029296875</v>
       </c>
       <c r="E68">
-        <v>653.3800048828125</v>
+        <v>644.780029296875</v>
       </c>
       <c r="F68">
-        <v>21641200</v>
+        <v>32813300</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>658.3900146484375</v>
+        <v>647</v>
       </c>
       <c r="B69">
-        <v>666.1400146484375</v>
+        <v>654.969970703125</v>
       </c>
       <c r="C69">
-        <v>637.8800048828125</v>
+        <v>639.4000244140625</v>
       </c>
       <c r="D69">
-        <v>650.5999755859375</v>
+        <v>646.97998046875</v>
       </c>
       <c r="E69">
-        <v>650.5999755859375</v>
+        <v>646.97998046875</v>
       </c>
       <c r="F69">
-        <v>20209600</v>
+        <v>16006600</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>654.6799926757812</v>
+        <v>649.7899780273438</v>
       </c>
       <c r="B70">
-        <v>656.7000122070312</v>
+        <v>683.6900024414062</v>
       </c>
       <c r="C70">
-        <v>642.2000122070312</v>
+        <v>648.7999877929688</v>
       </c>
       <c r="D70">
-        <v>644.219970703125</v>
+        <v>677.3499755859375</v>
       </c>
       <c r="E70">
-        <v>644.219970703125</v>
+        <v>677.3499755859375</v>
       </c>
       <c r="F70">
-        <v>16371000</v>
+        <v>30394600</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>629.8900146484375</v>
+        <v>671.760009765625</v>
       </c>
       <c r="B71">
-        <v>647.2000122070312</v>
+        <v>697.530029296875</v>
       </c>
       <c r="C71">
-        <v>621.2899780273438</v>
+        <v>669</v>
       </c>
       <c r="D71">
-        <v>646.219970703125</v>
+        <v>687.2000122070312</v>
       </c>
       <c r="E71">
-        <v>646.219970703125</v>
+        <v>687.2000122070312</v>
       </c>
       <c r="F71">
-        <v>21297100</v>
+        <v>29600500</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>651.989990234375</v>
+        <v>700</v>
       </c>
       <c r="B72">
-        <v>662.3900146484375</v>
+        <v>726.9400024414062</v>
       </c>
       <c r="C72">
-        <v>640.5</v>
+        <v>698.4000244140625</v>
       </c>
       <c r="D72">
-        <v>660.5</v>
+        <v>709.6699829101562</v>
       </c>
       <c r="E72">
-        <v>660.5</v>
+        <v>709.6699829101562</v>
       </c>
       <c r="F72">
-        <v>15487100</v>
+        <v>33615800</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>659.6099853515625</v>
+        <v>719</v>
       </c>
       <c r="B73">
-        <v>664.8599853515625</v>
+        <v>722.6500244140625</v>
       </c>
       <c r="C73">
-        <v>650.2899780273438</v>
+        <v>701.010009765625</v>
       </c>
       <c r="D73">
-        <v>655.2899780273438</v>
+        <v>709.739990234375</v>
       </c>
       <c r="E73">
-        <v>655.2899780273438</v>
+        <v>709.739990234375</v>
       </c>
       <c r="F73">
-        <v>13953300</v>
+        <v>21620300</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>656.4400024414062</v>
+        <v>711</v>
       </c>
       <c r="B74">
-        <v>662.1699829101562</v>
+        <v>724.9000244140625</v>
       </c>
       <c r="C74">
-        <v>644.5999755859375</v>
+        <v>708.9299926757812</v>
       </c>
       <c r="D74">
-        <v>649.260009765625</v>
+        <v>710.9199829101562</v>
       </c>
       <c r="E74">
-        <v>649.260009765625</v>
+        <v>710.9199829101562</v>
       </c>
       <c r="F74">
-        <v>15105700</v>
+        <v>17002600</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>646.3599853515625</v>
+        <v>716</v>
       </c>
       <c r="B75">
-        <v>648.7999877929688</v>
+        <v>720.9500122070312</v>
       </c>
       <c r="C75">
-        <v>637.2999877929688</v>
+        <v>711.4099731445312</v>
       </c>
       <c r="D75">
-        <v>643.3800048828125</v>
+        <v>714.6300048828125</v>
       </c>
       <c r="E75">
-        <v>643.3800048828125</v>
+        <v>714.6300048828125</v>
       </c>
       <c r="F75">
-        <v>14604900</v>
+        <v>12919600</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>650.969970703125</v>
+        <v>711.9000244140625</v>
       </c>
       <c r="B76">
-        <v>668.2000122070312</v>
+        <v>716.3300170898438</v>
       </c>
       <c r="C76">
-        <v>647.1099853515625</v>
+        <v>697.6300048828125</v>
       </c>
       <c r="D76">
-        <v>657.6199951171875</v>
+        <v>699.0999755859375</v>
       </c>
       <c r="E76">
-        <v>657.6199951171875</v>
+        <v>699.0999755859375</v>
       </c>
       <c r="F76">
-        <v>25336600</v>
+        <v>15576200</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>663.4000244140625</v>
+        <v>710.1699829101562</v>
       </c>
       <c r="B77">
-        <v>666.5</v>
+        <v>719.030029296875</v>
       </c>
       <c r="C77">
-        <v>627.239990234375</v>
+        <v>705.1300048828125</v>
       </c>
       <c r="D77">
-        <v>644.780029296875</v>
+        <v>713.760009765625</v>
       </c>
       <c r="E77">
-        <v>644.780029296875</v>
+        <v>713.760009765625</v>
       </c>
       <c r="F77">
-        <v>32813300</v>
+        <v>14715300</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>647</v>
+        <v>713.989990234375</v>
       </c>
       <c r="B78">
-        <v>654.969970703125</v>
+        <v>716.5900268554688</v>
       </c>
       <c r="C78">
-        <v>639.4000244140625</v>
+        <v>701.8800048828125</v>
       </c>
       <c r="D78">
-        <v>646.97998046875</v>
+        <v>709.989990234375</v>
       </c>
       <c r="E78">
-        <v>646.97998046875</v>
+        <v>709.989990234375</v>
       </c>
       <c r="F78">
-        <v>16006600</v>
+        <v>13432300</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>649.7899780273438</v>
+        <v>712.7100219726562</v>
       </c>
       <c r="B79">
-        <v>683.6900024414062</v>
+        <v>715.1799926757812</v>
       </c>
       <c r="C79">
-        <v>648.7999877929688</v>
+        <v>704.2100219726562</v>
       </c>
       <c r="D79">
-        <v>677.3499755859375</v>
+        <v>707.8200073242188</v>
       </c>
       <c r="E79">
-        <v>677.3499755859375</v>
+        <v>707.8200073242188</v>
       </c>
       <c r="F79">
-        <v>30394600</v>
+        <v>9800600</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>671.760009765625</v>
+        <v>706.3400268554688</v>
       </c>
       <c r="B80">
-        <v>697.530029296875</v>
+        <v>722.7999877929688</v>
       </c>
       <c r="C80">
-        <v>669</v>
+        <v>699.4000244140625</v>
       </c>
       <c r="D80">
-        <v>687.2000122070312</v>
+        <v>722.25</v>
       </c>
       <c r="E80">
-        <v>687.2000122070312</v>
+        <v>722.25</v>
       </c>
       <c r="F80">
-        <v>29600500</v>
+        <v>17459100</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>700</v>
+        <v>723.7100219726562</v>
       </c>
       <c r="B81">
-        <v>726.9400024414062</v>
+        <v>729.9000244140625</v>
       </c>
       <c r="C81">
-        <v>698.4000244140625</v>
+        <v>714.3400268554688</v>
       </c>
       <c r="D81">
-        <v>709.6699829101562</v>
+        <v>717.1699829101562</v>
       </c>
       <c r="E81">
-        <v>709.6699829101562</v>
+        <v>717.1699829101562</v>
       </c>
       <c r="F81">
-        <v>33615800</v>
+        <v>16698900</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>719</v>
+        <v>705.0700073242188</v>
       </c>
       <c r="B82">
-        <v>722.6500244140625</v>
+        <v>709.5</v>
       </c>
       <c r="C82">
-        <v>701.010009765625</v>
+        <v>676.4000244140625</v>
       </c>
       <c r="D82">
-        <v>709.739990234375</v>
+        <v>686.1699829101562</v>
       </c>
       <c r="E82">
-        <v>709.739990234375</v>
+        <v>686.1699829101562</v>
       </c>
       <c r="F82">
-        <v>21620300</v>
+        <v>22677400</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>711</v>
+        <v>672.6599731445312</v>
       </c>
       <c r="B83">
-        <v>724.9000244140625</v>
+        <v>674.5800170898438</v>
       </c>
       <c r="C83">
-        <v>708.9299926757812</v>
+        <v>648.8400268554688</v>
       </c>
       <c r="D83">
-        <v>710.9199829101562</v>
+        <v>665.7100219726562</v>
       </c>
       <c r="E83">
-        <v>710.9199829101562</v>
+        <v>665.7100219726562</v>
       </c>
       <c r="F83">
-        <v>17002600</v>
+        <v>23721300</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>716</v>
+        <v>669.75</v>
       </c>
       <c r="B84">
-        <v>720.9500122070312</v>
+        <v>695.77001953125</v>
       </c>
       <c r="C84">
-        <v>711.4099731445312</v>
+        <v>669.3499755859375</v>
       </c>
       <c r="D84">
-        <v>714.6300048828125</v>
+        <v>688.989990234375</v>
       </c>
       <c r="E84">
-        <v>714.6300048828125</v>
+        <v>688.989990234375</v>
       </c>
       <c r="F84">
-        <v>12919600</v>
+        <v>20349400</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>711.9000244140625</v>
+        <v>678.2100219726562</v>
       </c>
       <c r="B85">
-        <v>716.3300170898438</v>
+        <v>686.5499877929688</v>
       </c>
       <c r="C85">
-        <v>697.6300048828125</v>
+        <v>667.5900268554688</v>
       </c>
       <c r="D85">
-        <v>699.0999755859375</v>
+        <v>673.469970703125</v>
       </c>
       <c r="E85">
-        <v>699.0999755859375</v>
+        <v>673.469970703125</v>
       </c>
       <c r="F85">
-        <v>15576200</v>
+        <v>14313500</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>710.1699829101562</v>
+        <v>682.8499755859375</v>
       </c>
       <c r="B86">
-        <v>719.030029296875</v>
+        <v>692.1300048828125</v>
       </c>
       <c r="C86">
-        <v>705.1300048828125</v>
+        <v>673.7000122070312</v>
       </c>
       <c r="D86">
-        <v>713.760009765625</v>
+        <v>680.260009765625</v>
       </c>
       <c r="E86">
-        <v>713.760009765625</v>
+        <v>680.260009765625</v>
       </c>
       <c r="F86">
-        <v>14715300</v>
+        <v>14781800</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>713.989990234375</v>
+        <v>685.4400024414062</v>
       </c>
       <c r="B87">
-        <v>716.5900268554688</v>
+        <v>712.1300048828125</v>
       </c>
       <c r="C87">
-        <v>701.8800048828125</v>
+        <v>680.75</v>
       </c>
       <c r="D87">
-        <v>709.989990234375</v>
+        <v>706.2999877929688</v>
       </c>
       <c r="E87">
-        <v>709.989990234375</v>
+        <v>706.2999877929688</v>
       </c>
       <c r="F87">
-        <v>13432300</v>
+        <v>20264900</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>712.7100219726562</v>
+        <v>710.6799926757812</v>
       </c>
       <c r="B88">
-        <v>715.1799926757812</v>
+        <v>715.219970703125</v>
       </c>
       <c r="C88">
-        <v>704.2100219726562</v>
+        <v>702.6400146484375</v>
       </c>
       <c r="D88">
-        <v>707.8200073242188</v>
+        <v>708.489990234375</v>
       </c>
       <c r="E88">
-        <v>707.8200073242188</v>
+        <v>708.489990234375</v>
       </c>
       <c r="F88">
-        <v>9800600</v>
+        <v>13083100</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>706.3400268554688</v>
+        <v>707.030029296875</v>
       </c>
       <c r="B89">
-        <v>722.7999877929688</v>
+        <v>716.969970703125</v>
       </c>
       <c r="C89">
-        <v>699.4000244140625</v>
+        <v>704</v>
       </c>
       <c r="D89">
-        <v>722.25</v>
+        <v>711.2000122070312</v>
       </c>
       <c r="E89">
-        <v>722.25</v>
+        <v>711.2000122070312</v>
       </c>
       <c r="F89">
-        <v>17459100</v>
+        <v>12645600</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>723.7100219726562</v>
+        <v>708.3099975585938</v>
       </c>
       <c r="B90">
-        <v>729.9000244140625</v>
+        <v>715.4000244140625</v>
       </c>
       <c r="C90">
-        <v>714.3400268554688</v>
+        <v>697.6199951171875</v>
       </c>
       <c r="D90">
-        <v>717.1699829101562</v>
+        <v>701.1599731445312</v>
       </c>
       <c r="E90">
-        <v>717.1699829101562</v>
+        <v>701.1599731445312</v>
       </c>
       <c r="F90">
-        <v>16698900</v>
+        <v>13214300</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>705.0700073242188</v>
+        <v>705</v>
       </c>
       <c r="B91">
-        <v>709.5</v>
+        <v>715</v>
       </c>
       <c r="C91">
-        <v>676.4000244140625</v>
+        <v>702.0999755859375</v>
       </c>
       <c r="D91">
-        <v>686.1699829101562</v>
+        <v>711.9199829101562</v>
       </c>
       <c r="E91">
-        <v>686.1699829101562</v>
+        <v>711.9199829101562</v>
       </c>
       <c r="F91">
-        <v>22677400</v>
+        <v>13762100</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>672.6599731445312</v>
+        <v>714.719970703125</v>
       </c>
       <c r="B92">
-        <v>674.5800170898438</v>
+        <v>731</v>
       </c>
       <c r="C92">
-        <v>648.8400268554688</v>
+        <v>712.72998046875</v>
       </c>
       <c r="D92">
-        <v>665.7100219726562</v>
+        <v>730.9099731445312</v>
       </c>
       <c r="E92">
-        <v>665.7100219726562</v>
+        <v>730.9099731445312</v>
       </c>
       <c r="F92">
-        <v>23721300</v>
+        <v>18604200</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>669.75</v>
+        <v>733</v>
       </c>
       <c r="B93">
-        <v>695.77001953125</v>
+        <v>740.3900146484375</v>
       </c>
       <c r="C93">
-        <v>669.3499755859375</v>
+        <v>726.4400024414062</v>
       </c>
       <c r="D93">
-        <v>688.989990234375</v>
+        <v>735.719970703125</v>
       </c>
       <c r="E93">
-        <v>688.989990234375</v>
+        <v>735.719970703125</v>
       </c>
       <c r="F93">
-        <v>20349400</v>
+        <v>20855400</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>678.2100219726562</v>
+        <v>734.0800170898438</v>
       </c>
       <c r="B94">
-        <v>686.5499877929688</v>
+        <v>741.989990234375</v>
       </c>
       <c r="C94">
-        <v>667.5900268554688</v>
+        <v>731.27001953125</v>
       </c>
       <c r="D94">
-        <v>673.469970703125</v>
+        <v>734.0900268554688</v>
       </c>
       <c r="E94">
-        <v>673.469970703125</v>
+        <v>734.0900268554688</v>
       </c>
       <c r="F94">
-        <v>14313500</v>
+        <v>13204300</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>682.8499755859375</v>
+        <v>734.5</v>
       </c>
       <c r="B95">
-        <v>692.1300048828125</v>
+        <v>740.969970703125</v>
       </c>
       <c r="C95">
-        <v>673.7000122070312</v>
+        <v>730.5399780273438</v>
       </c>
       <c r="D95">
-        <v>680.260009765625</v>
+        <v>732.3900146484375</v>
       </c>
       <c r="E95">
-        <v>680.260009765625</v>
+        <v>732.3900146484375</v>
       </c>
       <c r="F95">
-        <v>14781800</v>
+        <v>12777300</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>685.4400024414062</v>
+        <v>732.25</v>
       </c>
       <c r="B96">
-        <v>712.1300048828125</v>
+        <v>734</v>
       </c>
       <c r="C96">
-        <v>680.75</v>
+        <v>724.2000122070312</v>
       </c>
       <c r="D96">
-        <v>706.2999877929688</v>
+        <v>733.5700073242188</v>
       </c>
       <c r="E96">
-        <v>706.2999877929688</v>
+        <v>733.5700073242188</v>
       </c>
       <c r="F96">
-        <v>20264900</v>
+        <v>15246100</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>710.6799926757812</v>
+        <v>740</v>
       </c>
       <c r="B97">
-        <v>715.219970703125</v>
+        <v>760.2000122070312</v>
       </c>
       <c r="C97">
-        <v>702.6400146484375</v>
+        <v>739.260009765625</v>
       </c>
       <c r="D97">
-        <v>708.489990234375</v>
+        <v>752.9199829101562</v>
       </c>
       <c r="E97">
-        <v>708.489990234375</v>
+        <v>752.9199829101562</v>
       </c>
       <c r="F97">
-        <v>13083100</v>
+        <v>20039800</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>707.030029296875</v>
+        <v>761.5800170898438</v>
       </c>
       <c r="B98">
-        <v>716.969970703125</v>
+        <v>764.4500122070312</v>
       </c>
       <c r="C98">
-        <v>704</v>
+        <v>740.77001953125</v>
       </c>
       <c r="D98">
-        <v>711.2000122070312</v>
+        <v>753.8699951171875</v>
       </c>
       <c r="E98">
-        <v>711.2000122070312</v>
+        <v>753.8699951171875</v>
       </c>
       <c r="F98">
-        <v>12645600</v>
+        <v>18793000</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>708.3099975585938</v>
+        <v>753.4099731445312</v>
       </c>
       <c r="B99">
-        <v>715.4000244140625</v>
+        <v>762.0999755859375</v>
       </c>
       <c r="C99">
-        <v>697.6199951171875</v>
+        <v>751.6300048828125</v>
       </c>
       <c r="D99">
-        <v>701.1599731445312</v>
+        <v>754.8599853515625</v>
       </c>
       <c r="E99">
-        <v>701.1599731445312</v>
+        <v>754.8599853515625</v>
       </c>
       <c r="F99">
-        <v>13214300</v>
+        <v>14077700</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>705</v>
+        <v>759.5999755859375</v>
       </c>
       <c r="B100">
-        <v>715</v>
+        <v>762.6099853515625</v>
       </c>
       <c r="C100">
-        <v>702.0999755859375</v>
+        <v>734.52001953125</v>
       </c>
       <c r="D100">
-        <v>711.9199829101562</v>
+        <v>736.27001953125</v>
       </c>
       <c r="E100">
-        <v>711.9199829101562</v>
+        <v>736.27001953125</v>
       </c>
       <c r="F100">
-        <v>13762100</v>
+        <v>15114300</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>714.719970703125</v>
+        <v>740.2100219726562</v>
       </c>
       <c r="B101">
-        <v>731</v>
+        <v>744.780029296875</v>
       </c>
       <c r="C101">
-        <v>712.72998046875</v>
+        <v>708.8499755859375</v>
       </c>
       <c r="D101">
-        <v>730.9099731445312</v>
+        <v>743</v>
       </c>
       <c r="E101">
-        <v>730.9099731445312</v>
+        <v>743</v>
       </c>
       <c r="F101">
-        <v>18604200</v>
+        <v>22952500</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>733</v>
+        <v>742.5700073242188</v>
       </c>
       <c r="B102">
-        <v>740.3900146484375</v>
+        <v>754.469970703125</v>
       </c>
       <c r="C102">
-        <v>726.4400024414062</v>
+        <v>736.4000244140625</v>
       </c>
       <c r="D102">
-        <v>735.719970703125</v>
+        <v>744.489990234375</v>
       </c>
       <c r="E102">
-        <v>735.719970703125</v>
+        <v>744.489990234375</v>
       </c>
       <c r="F102">
-        <v>20855400</v>
+        <v>18524900</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>734.0800170898438</v>
+        <v>745</v>
       </c>
       <c r="B103">
-        <v>741.989990234375</v>
+        <v>756.8599853515625</v>
       </c>
       <c r="C103">
-        <v>731.27001953125</v>
+        <v>738.3599853515625</v>
       </c>
       <c r="D103">
-        <v>734.0900268554688</v>
+        <v>755.8300170898438</v>
       </c>
       <c r="E103">
-        <v>734.0900268554688</v>
+        <v>755.8300170898438</v>
       </c>
       <c r="F103">
-        <v>13204300</v>
+        <v>15357700</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>734.5</v>
+        <v>752.8300170898438</v>
       </c>
       <c r="B104">
-        <v>740.969970703125</v>
+        <v>758.9099731445312</v>
       </c>
       <c r="C104">
-        <v>730.5399780273438</v>
+        <v>747.6099853515625</v>
       </c>
       <c r="D104">
-        <v>732.3900146484375</v>
+        <v>756.989990234375</v>
       </c>
       <c r="E104">
-        <v>732.3900146484375</v>
+        <v>756.989990234375</v>
       </c>
       <c r="F104">
-        <v>12777300</v>
+        <v>13923400</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>732.25</v>
+        <v>757.1500244140625</v>
       </c>
       <c r="B105">
-        <v>734</v>
+        <v>761.0399780273438</v>
       </c>
       <c r="C105">
-        <v>724.2000122070312</v>
+        <v>750</v>
       </c>
       <c r="D105">
-        <v>733.5700073242188</v>
+        <v>759.489990234375</v>
       </c>
       <c r="E105">
-        <v>733.5700073242188</v>
+        <v>759.489990234375</v>
       </c>
       <c r="F105">
-        <v>15246100</v>
+        <v>28204200</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>740</v>
+        <v>734.5599975585938</v>
       </c>
       <c r="B106">
-        <v>760.2000122070312</v>
+        <v>742</v>
       </c>
       <c r="C106">
-        <v>739.260009765625</v>
+        <v>718.6199951171875</v>
       </c>
       <c r="D106">
-        <v>752.9199829101562</v>
+        <v>730.1699829101562</v>
       </c>
       <c r="E106">
-        <v>752.9199829101562</v>
+        <v>730.1699829101562</v>
       </c>
       <c r="F106">
-        <v>20039800</v>
+        <v>24757700</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>761.5800170898438</v>
+        <v>734.7899780273438</v>
       </c>
       <c r="B107">
-        <v>764.4500122070312</v>
+        <v>744.739990234375</v>
       </c>
       <c r="C107">
-        <v>740.77001953125</v>
+        <v>730.4400024414062</v>
       </c>
       <c r="D107">
-        <v>753.8699951171875</v>
+        <v>739.3800048828125</v>
       </c>
       <c r="E107">
-        <v>753.8699951171875</v>
+        <v>739.3800048828125</v>
       </c>
       <c r="F107">
-        <v>18793000</v>
+        <v>16330700</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>753.4099731445312</v>
+        <v>743.530029296875</v>
       </c>
       <c r="B108">
-        <v>762.0999755859375</v>
+        <v>753.6699829101562</v>
       </c>
       <c r="C108">
-        <v>751.6300048828125</v>
+        <v>739.1199951171875</v>
       </c>
       <c r="D108">
-        <v>754.8599853515625</v>
+        <v>751.9400024414062</v>
       </c>
       <c r="E108">
-        <v>754.8599853515625</v>
+        <v>751.9400024414062</v>
       </c>
       <c r="F108">
-        <v>14077700</v>
+        <v>15126300</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>759.5999755859375</v>
+        <v>755</v>
       </c>
       <c r="B109">
-        <v>762.6099853515625</v>
+        <v>758.2000122070312</v>
       </c>
       <c r="C109">
-        <v>734.52001953125</v>
+        <v>747.9199829101562</v>
       </c>
       <c r="D109">
-        <v>736.27001953125</v>
+        <v>753.6400146484375</v>
       </c>
       <c r="E109">
-        <v>736.27001953125</v>
+        <v>753.6400146484375</v>
       </c>
       <c r="F109">
-        <v>15114300</v>
+        <v>11947500</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>740.2100219726562</v>
+        <v>745.8900146484375</v>
       </c>
       <c r="B110">
-        <v>744.780029296875</v>
+        <v>774.7999877929688</v>
       </c>
       <c r="C110">
-        <v>708.8499755859375</v>
+        <v>744.5599975585938</v>
       </c>
       <c r="D110">
-        <v>743</v>
+        <v>774.3900146484375</v>
       </c>
       <c r="E110">
-        <v>743</v>
+        <v>774.3900146484375</v>
       </c>
       <c r="F110">
-        <v>22952500</v>
+        <v>21373000</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>742.5700073242188</v>
+        <v>773.1199951171875</v>
       </c>
       <c r="B111">
-        <v>754.469970703125</v>
+        <v>799</v>
       </c>
       <c r="C111">
-        <v>736.4000244140625</v>
+        <v>769.3099975585938</v>
       </c>
       <c r="D111">
-        <v>744.489990234375</v>
+        <v>791.3599853515625</v>
       </c>
       <c r="E111">
-        <v>744.489990234375</v>
+        <v>791.3599853515625</v>
       </c>
       <c r="F111">
-        <v>18524900</v>
+        <v>28070700</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>745</v>
+        <v>787.2000122070312</v>
       </c>
       <c r="B112">
-        <v>756.8599853515625</v>
+        <v>795.6400146484375</v>
       </c>
       <c r="C112">
-        <v>738.3599853515625</v>
+        <v>766.1799926757812</v>
       </c>
       <c r="D112">
-        <v>755.8300170898438</v>
+        <v>777.5599975585938</v>
       </c>
       <c r="E112">
-        <v>755.8300170898438</v>
+        <v>777.5599975585938</v>
       </c>
       <c r="F112">
-        <v>15357700</v>
+        <v>25381400</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>752.8300170898438</v>
+        <v>779.7999877929688</v>
       </c>
       <c r="B113">
-        <v>758.9099731445312</v>
+        <v>793.5</v>
       </c>
       <c r="C113">
-        <v>747.6099853515625</v>
+        <v>770.6799926757812</v>
       </c>
       <c r="D113">
-        <v>756.989990234375</v>
+        <v>781.3099975585938</v>
       </c>
       <c r="E113">
-        <v>756.989990234375</v>
+        <v>781.3099975585938</v>
       </c>
       <c r="F113">
-        <v>13923400</v>
+        <v>20942900</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>757.1500244140625</v>
+        <v>781</v>
       </c>
       <c r="B114">
-        <v>761.0399780273438</v>
+        <v>789.1300048828125</v>
       </c>
       <c r="C114">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="D114">
-        <v>759.489990234375</v>
+        <v>775.47998046875</v>
       </c>
       <c r="E114">
-        <v>759.489990234375</v>
+        <v>775.47998046875</v>
       </c>
       <c r="F114">
-        <v>28204200</v>
+        <v>17956000</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>734.5599975585938</v>
+        <v>778.4000244140625</v>
       </c>
       <c r="B115">
-        <v>742</v>
+        <v>780.780029296875</v>
       </c>
       <c r="C115">
-        <v>718.6199951171875</v>
+        <v>763.5900268554688</v>
       </c>
       <c r="D115">
-        <v>730.1699829101562</v>
+        <v>775.219970703125</v>
       </c>
       <c r="E115">
-        <v>730.1699829101562</v>
+        <v>775.219970703125</v>
       </c>
       <c r="F115">
-        <v>24757700</v>
+        <v>17031400</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>734.7899780273438</v>
+        <v>796.5</v>
       </c>
       <c r="B116">
-        <v>744.739990234375</v>
+        <v>806.969970703125</v>
       </c>
       <c r="C116">
-        <v>730.4400024414062</v>
+        <v>776.1199951171875</v>
       </c>
       <c r="D116">
-        <v>739.3800048828125</v>
+        <v>781.530029296875</v>
       </c>
       <c r="E116">
-        <v>739.3800048828125</v>
+        <v>781.530029296875</v>
       </c>
       <c r="F116">
-        <v>16330700</v>
+        <v>30483300</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>743.530029296875</v>
+        <v>784.7999877929688</v>
       </c>
       <c r="B117">
-        <v>753.6699829101562</v>
+        <v>797.3099975585938</v>
       </c>
       <c r="C117">
-        <v>739.1199951171875</v>
+        <v>774.2000122070312</v>
       </c>
       <c r="D117">
-        <v>751.9400024414062</v>
+        <v>780.5900268554688</v>
       </c>
       <c r="E117">
-        <v>751.9400024414062</v>
+        <v>780.5900268554688</v>
       </c>
       <c r="F117">
-        <v>15126300</v>
+        <v>18432600</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>755</v>
+        <v>776.2000122070312</v>
       </c>
       <c r="B118">
-        <v>758.2000122070312</v>
+        <v>786.6599731445312</v>
       </c>
       <c r="C118">
-        <v>747.9199829101562</v>
+        <v>773.219970703125</v>
       </c>
       <c r="D118">
-        <v>753.6400146484375</v>
+        <v>782.75</v>
       </c>
       <c r="E118">
-        <v>753.6400146484375</v>
+        <v>782.75</v>
       </c>
       <c r="F118">
-        <v>11947500</v>
+        <v>14632800</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>745.8900146484375</v>
+        <v>785.4600219726562</v>
       </c>
       <c r="B119">
-        <v>774.7999877929688</v>
+        <v>805</v>
       </c>
       <c r="C119">
-        <v>744.5599975585938</v>
+        <v>783.3800048828125</v>
       </c>
       <c r="D119">
-        <v>774.3900146484375</v>
+        <v>793.6099853515625</v>
       </c>
       <c r="E119">
-        <v>774.3900146484375</v>
+        <v>793.6099853515625</v>
       </c>
       <c r="F119">
-        <v>21373000</v>
+        <v>19195800</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>773.1199951171875</v>
+        <v>796.2100219726562</v>
       </c>
       <c r="B120">
-        <v>799</v>
+        <v>796.3800048828125</v>
       </c>
       <c r="C120">
-        <v>769.3099975585938</v>
+        <v>780.9099731445312</v>
       </c>
       <c r="D120">
-        <v>791.3599853515625</v>
+        <v>785.489990234375</v>
       </c>
       <c r="E120">
-        <v>791.3599853515625</v>
+        <v>785.489990234375</v>
       </c>
       <c r="F120">
-        <v>28070700</v>
+        <v>16711100</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>787.2000122070312</v>
+        <v>787.6500244140625</v>
       </c>
       <c r="B121">
-        <v>795.6400146484375</v>
+        <v>801.239990234375</v>
       </c>
       <c r="C121">
-        <v>766.1799926757812</v>
+        <v>785.5</v>
       </c>
       <c r="D121">
-        <v>777.5599975585938</v>
+        <v>791.9400024414062</v>
       </c>
       <c r="E121">
-        <v>777.5599975585938</v>
+        <v>791.9400024414062</v>
       </c>
       <c r="F121">
-        <v>25381400</v>
+        <v>14200300</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>779.7999877929688</v>
+        <v>800.9299926757812</v>
       </c>
       <c r="B122">
-        <v>793.5</v>
+        <v>812.3200073242188</v>
       </c>
       <c r="C122">
-        <v>770.6799926757812</v>
+        <v>796.5700073242188</v>
       </c>
       <c r="D122">
-        <v>781.3099975585938</v>
+        <v>805.719970703125</v>
       </c>
       <c r="E122">
-        <v>781.3099975585938</v>
+        <v>805.719970703125</v>
       </c>
       <c r="F122">
-        <v>20942900</v>
+        <v>22020000</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>781</v>
+        <v>810.469970703125</v>
       </c>
       <c r="B123">
-        <v>789.1300048828125</v>
+        <v>815.4099731445312</v>
       </c>
       <c r="C123">
-        <v>775</v>
+        <v>805.780029296875</v>
       </c>
       <c r="D123">
-        <v>775.47998046875</v>
+        <v>811.0800170898438</v>
       </c>
       <c r="E123">
-        <v>775.47998046875</v>
+        <v>811.0800170898438</v>
       </c>
       <c r="F123">
-        <v>17956000</v>
+        <v>14120100</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>778.4000244140625</v>
+        <v>815.489990234375</v>
       </c>
       <c r="B124">
-        <v>780.780029296875</v>
+        <v>820.25</v>
       </c>
       <c r="C124">
-        <v>763.5900268554688</v>
+        <v>813.3499755859375</v>
       </c>
       <c r="D124">
-        <v>775.219970703125</v>
+        <v>818.3200073242188</v>
       </c>
       <c r="E124">
-        <v>775.219970703125</v>
+        <v>818.3200073242188</v>
       </c>
       <c r="F124">
-        <v>17031400</v>
+        <v>12247200</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>796.5</v>
+        <v>823.739990234375</v>
       </c>
       <c r="B125">
-        <v>806.969970703125</v>
+        <v>843.2100219726562</v>
       </c>
       <c r="C125">
-        <v>776.1199951171875</v>
+        <v>822.3499755859375</v>
       </c>
       <c r="D125">
-        <v>781.530029296875</v>
+        <v>843.030029296875</v>
       </c>
       <c r="E125">
-        <v>781.530029296875</v>
+        <v>843.030029296875</v>
       </c>
       <c r="F125">
-        <v>30483300</v>
+        <v>18818000</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>784.7999877929688</v>
+        <v>851.7899780273438</v>
       </c>
       <c r="B126">
-        <v>797.3099975585938</v>
+        <v>875.260009765625</v>
       </c>
       <c r="C126">
-        <v>774.2000122070312</v>
+        <v>851.469970703125</v>
       </c>
       <c r="D126">
-        <v>780.5900268554688</v>
+        <v>870.1099853515625</v>
       </c>
       <c r="E126">
-        <v>780.5900268554688</v>
+        <v>870.1099853515625</v>
       </c>
       <c r="F126">
-        <v>18432600</v>
+        <v>24207200</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>776.2000122070312</v>
+        <v>877.530029296875</v>
       </c>
       <c r="B127">
-        <v>786.6599731445312</v>
+        <v>877.9500122070312</v>
       </c>
       <c r="C127">
-        <v>773.219970703125</v>
+        <v>862.510009765625</v>
       </c>
       <c r="D127">
-        <v>782.75</v>
+        <v>864.27001953125</v>
       </c>
       <c r="E127">
-        <v>782.75</v>
+        <v>864.27001953125</v>
       </c>
       <c r="F127">
-        <v>14632800</v>
+        <v>17381100</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>785.4600219726562</v>
+        <v>865.3499755859375</v>
       </c>
       <c r="B128">
-        <v>805</v>
+        <v>869.489990234375</v>
       </c>
       <c r="C128">
-        <v>783.3800048828125</v>
+        <v>857.3800048828125</v>
       </c>
       <c r="D128">
-        <v>793.6099853515625</v>
+        <v>865.7999877929688</v>
       </c>
       <c r="E128">
-        <v>793.6099853515625</v>
+        <v>865.7999877929688</v>
       </c>
       <c r="F128">
-        <v>19195800</v>
+        <v>14032100</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>796.2100219726562</v>
+        <v>856</v>
       </c>
       <c r="B129">
-        <v>796.3800048828125</v>
+        <v>900</v>
       </c>
       <c r="C129">
-        <v>780.9099731445312</v>
+        <v>855.5</v>
       </c>
       <c r="D129">
-        <v>785.489990234375</v>
+        <v>894</v>
       </c>
       <c r="E129">
-        <v>785.489990234375</v>
+        <v>894</v>
       </c>
       <c r="F129">
-        <v>16711100</v>
+        <v>31396500</v>
       </c>
     </row>
   </sheetData>
